--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="10680"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="10680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -97,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -105,7 +105,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
@@ -143,9 +143,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -182,10 +179,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -242,6 +236,35 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -296,6 +319,24 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -331,74 +372,19 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
@@ -439,22 +425,39 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,7 +465,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G8" totalsRowCount="1" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G8" totalsRowCount="1" headerRowDxfId="38">
   <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="37"/>
@@ -471,12 +474,12 @@
     <tableColumn id="4" name="Capital" dataDxfId="34">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="33"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>E2/D2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -486,8 +489,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G8" totalsRowCount="1" headerRowDxfId="23">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G8" totalsRowCount="1" headerRowDxfId="30">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="29"/>
     <tableColumn id="2" name="Depósito" dataDxfId="28"/>
@@ -496,11 +499,11 @@
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Lucro" dataDxfId="25"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="11" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="10" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -510,21 +513,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G8" totalsRowCount="1" headerRowDxfId="16">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G8" totalsRowCount="1" headerRowDxfId="22">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="22"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="21"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="20"/>
-    <tableColumn id="4" name="Capital" dataDxfId="19">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="21"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="20"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="19"/>
+    <tableColumn id="4" name="Capital" dataDxfId="18">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="18"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="9" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" dataDxfId="17"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -534,21 +537,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E8" totalsRowCount="1" headerRowDxfId="13">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E8" totalsRowCount="1" headerRowDxfId="12">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="15"/>
-    <tableColumn id="4" name="Capital" dataDxfId="2">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="11"/>
+    <tableColumn id="4" name="Capital" dataDxfId="10">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="6">
+    <tableColumn id="5" name="Lucro" dataDxfId="9">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -842,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1023,15 +1026,15 @@
         <v>275.55</v>
       </c>
       <c r="E7" s="4">
-        <v>2.79</v>
+        <v>5.88</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>278.34000000000003</v>
+        <v>281.43</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>1.0125204137180184E-2</v>
+        <v>2.1339139902014151E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1039,17 +1042,27 @@
         <f>SUBTOTAL(103,[Data])</f>
         <v>6</v>
       </c>
+      <c r="E8" s="4">
+        <f>SUBTOTAL(109,[Lucro])</f>
+        <v>13.199999999999996</v>
+      </c>
       <c r="F8" s="5">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>6.8266910578609341E-3</v>
+        <v>8.6810182291972016E-3</v>
       </c>
       <c r="G8" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>4.1665597659523934E-2</v>
+        <v>5.3229680065099538E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1064,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" activeCellId="2" sqref="D14 F7 F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1246,15 +1259,15 @@
         <v>40.15999999999994</v>
       </c>
       <c r="E7" s="4">
-        <v>1.24</v>
+        <v>10.06</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>41.399999999999942</v>
+        <v>50.219999999999942</v>
       </c>
       <c r="G7" s="5">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E7/D7,0)</f>
-        <v>3.0876494023904428E-2</v>
+        <v>0.25049800796812788</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1264,11 +1277,11 @@
       </c>
       <c r="F8" s="5">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-0.11191137329409462</v>
+        <v>-8.2859856939928922E-2</v>
       </c>
       <c r="G8" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.50938835771247926</v>
+        <v>-0.40486674696426816</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1515,7 +1528,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1656,15 +1669,15 @@
       </c>
       <c r="C7" s="4">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>7.93</v>
+        <v>19.84</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>326.00000000000006</v>
+        <v>337.91</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>2.4931618826044576E-2</v>
+        <v>6.2376206495425524E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1674,11 +1687,11 @@
       </c>
       <c r="D8" s="5">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-8.627001630192821E-2</v>
+        <v>-8.0789202674234839E-2</v>
       </c>
       <c r="E8" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.41802107482275619</v>
+        <v>-0.39675920672809062</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -11,13 +11,15 @@
     <sheet name="Pokerstars" sheetId="2" r:id="rId2"/>
     <sheet name="888" sheetId="3" r:id="rId3"/>
     <sheet name="Totais" sheetId="4" r:id="rId4"/>
+    <sheet name="ROI Poker" sheetId="5" r:id="rId5"/>
+    <sheet name="tmp" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Data</t>
   </si>
@@ -39,12 +41,37 @@
   <si>
     <t>Capital</t>
   </si>
+  <si>
+    <t>Buy-In</t>
+  </si>
+  <si>
+    <t>Prize</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>%ROI</t>
+  </si>
+  <si>
+    <t>Saldo Anterior</t>
+  </si>
+  <si>
+    <t>Saldo Final</t>
+  </si>
+  <si>
+    <t>%ROI/Mês</t>
+  </si>
+  <si>
+    <t>%Rent/Mês</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
@@ -88,11 +115,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -100,12 +128,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="51">
     <dxf>
       <font>
         <b val="0"/>
@@ -143,6 +177,9 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -197,7 +234,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -218,6 +258,12 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -242,29 +288,6 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -284,7 +307,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -298,7 +321,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -319,41 +347,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -372,41 +365,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -425,10 +383,76 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -459,28 +483,173 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G8" totalsRowCount="1" headerRowDxfId="38">
-  <autoFilter ref="A1:G7"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="37"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="36"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="35"/>
-    <tableColumn id="4" name="Capital" dataDxfId="34">
-      <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H8" totalsRowCount="1" headerRowDxfId="50">
+  <autoFilter ref="A1:H7">
+    <filterColumn colId="1"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="49"/>
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="10" totalsRowDxfId="6" dataCellStyle="Moeda">
+      <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="3" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="5">
+      <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+      <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
+      <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="2" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>E2/D2</calculatedColumnFormula>
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -489,21 +658,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G8" totalsRowCount="1" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G8" totalsRowCount="1" headerRowDxfId="45">
   <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="29"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="28"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="27"/>
-    <tableColumn id="4" name="Capital" dataDxfId="26">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="44"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="43"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="42"/>
+    <tableColumn id="4" name="Capital" dataDxfId="41">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="25"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" dataDxfId="40"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="19" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="18" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -513,21 +682,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G8" totalsRowCount="1" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G8" totalsRowCount="1" headerRowDxfId="37">
   <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="21"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="20"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="19"/>
-    <tableColumn id="4" name="Capital" dataDxfId="18">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="36"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="35"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="34"/>
+    <tableColumn id="4" name="Capital" dataDxfId="33">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="17"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" dataDxfId="32"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="21" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="20" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -537,23 +706,43 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E8" totalsRowCount="1" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E8" totalsRowCount="1" headerRowDxfId="29">
   <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="11"/>
-    <tableColumn id="4" name="Capital" dataDxfId="10">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="28"/>
+    <tableColumn id="4" name="Capital" dataDxfId="27">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="9">
+    <tableColumn id="5" name="Lucro" dataDxfId="26">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E8" totalsRowCount="1" headerRowDxfId="15">
+  <autoFilter ref="A1:E8">
+    <filterColumn colId="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="13"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="16"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="12">
+      <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="11" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -845,224 +1034,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>42064</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>100</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
       <c r="D2" s="4">
-        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>100</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F2" s="4">
-        <f>D2+E2-C2</f>
+      <c r="G2" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>101.15</v>
       </c>
-      <c r="G2" s="5">
-        <f>E2/D2</f>
+      <c r="H2" s="5">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>42095</v>
       </c>
-      <c r="B3" s="4">
-        <v>131.5</v>
+      <c r="B3" s="11">
+        <f t="shared" ref="B2:B7" si="0">G2</f>
+        <v>101.15</v>
       </c>
       <c r="C3" s="4">
-        <v>31.5</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4">
-        <f>B3+F2</f>
-        <v>232.65</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
+        <v>201.15</v>
+      </c>
+      <c r="F3" s="4">
         <v>16.37</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F7" si="0">D3+E3-C3</f>
+      <c r="G3" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>217.52</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G7" si="1">E3/D3</f>
-        <v>7.0363206533419306E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="5">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>0.16183885318833416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>42125</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
+      <c r="B4" s="11">
+        <f t="shared" si="0"/>
+        <v>217.52</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D7" si="2">B4+F3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>217.52</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>14.64</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>232.16000000000003</v>
+      </c>
+      <c r="H4" s="5">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>6.730415593968371E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>42156</v>
+      </c>
+      <c r="B5" s="11">
         <f t="shared" si="0"/>
         <v>232.16000000000003</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" si="1"/>
-        <v>6.730415593968371E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
-        <v>42156</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
       <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>206.77</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="2"/>
+      <c r="E5" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>232.16000000000003</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>-25.39</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="1"/>
+      <c r="G5" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>-0.10936423156443831</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>42186</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>275</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
       <c r="D6" s="4">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>275</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>275.55</v>
+      </c>
+      <c r="H6" s="5">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>42217</v>
+      </c>
+      <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>275.55</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" si="1"/>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>42217</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>275.55</v>
       </c>
-      <c r="E7" s="4">
-        <v>5.88</v>
-      </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>281.43</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="1"/>
-        <v>2.1339139902014151E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>12.25</v>
+      </c>
+      <c r="G7" s="4">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>287.8</v>
+      </c>
+      <c r="H7" s="5">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>4.4456541462529482E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <f>SUBTOTAL(103,[Data])</f>
         <v>6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="C8" s="4">
+        <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
+        <v>268.23</v>
+      </c>
+      <c r="D8" s="5">
+        <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
+        <v>7.2959773328859542E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
+        <v>1.1805975671977276E-2</v>
+      </c>
+      <c r="F8" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>13.199999999999996</v>
-      </c>
-      <c r="F8" s="5">
+        <v>19.569999999999997</v>
+      </c>
+      <c r="G8" s="5">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>8.6810182291972016E-3</v>
-      </c>
-      <c r="G8" s="6">
+        <v>2.6383594980943892E-2</v>
+      </c>
+      <c r="H8" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>5.3229680065099538E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.16911763568156735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1078,7 +1323,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1259,15 +1504,15 @@
         <v>40.15999999999994</v>
       </c>
       <c r="E7" s="4">
-        <v>10.06</v>
+        <v>-6.31</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>50.219999999999942</v>
+        <v>33.849999999999937</v>
       </c>
       <c r="G7" s="5">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E7/D7,0)</f>
-        <v>0.25049800796812788</v>
+        <v>-0.15712151394422333</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1277,11 +1522,11 @@
       </c>
       <c r="F8" s="5">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-8.2859856939928922E-2</v>
+        <v>-0.14121846691203643</v>
       </c>
       <c r="G8" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.40486674696426816</v>
+        <v>-0.59885980455476884</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1304,7 +1549,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,15 +1727,15 @@
         <v>2.3599999999999994</v>
       </c>
       <c r="E7" s="4">
-        <v>3.9</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>6.26</v>
+        <v>1.2399999999999993</v>
       </c>
       <c r="G7" s="5">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E7/D7,0)</f>
-        <v>1.6525423728813562</v>
+        <v>-0.47457627118644086</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1500,11 +1745,11 @@
       </c>
       <c r="F8" s="5">
         <f>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</f>
-        <v>-0.29270478259023291</v>
+        <v>-0.45998153071830727</v>
       </c>
       <c r="G8" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.87479999999999991</v>
+        <v>-0.97519999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1528,7 +1773,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1669,15 +1914,15 @@
       </c>
       <c r="C7" s="4">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>19.84</v>
+        <v>4.82</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>337.91</v>
+        <v>322.89000000000004</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>6.2376206495425524E-2</v>
+        <v>1.5153896940924953E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1687,11 +1932,11 @@
       </c>
       <c r="D8" s="5">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-8.0789202674234839E-2</v>
+        <v>-8.7728637039843238E-2</v>
       </c>
       <c r="E8" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.39675920672809062</v>
+        <v>-0.42357308236048996</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1703,4 +1948,220 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>42064</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>42095</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>42125</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="C4" s="4">
+        <v>11.01</v>
+      </c>
+      <c r="D4" s="4">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>-7.48</v>
+      </c>
+      <c r="E4" s="5">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v>-0.67938237965485926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>42156</v>
+      </c>
+      <c r="B5" s="4">
+        <v>113.83</v>
+      </c>
+      <c r="C5" s="4">
+        <v>201.92</v>
+      </c>
+      <c r="D5" s="4">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>-88.089999999999989</v>
+      </c>
+      <c r="E5" s="5">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v>-0.4362618858954041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>42186</v>
+      </c>
+      <c r="B6" s="4">
+        <v>226.95</v>
+      </c>
+      <c r="C6" s="4">
+        <v>349.25</v>
+      </c>
+      <c r="D6" s="4">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>-122.30000000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v>-0.35017895490336437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>42217</v>
+      </c>
+      <c r="B7" s="4">
+        <v>669.42</v>
+      </c>
+      <c r="C7" s="4">
+        <v>676.85</v>
+      </c>
+      <c r="D7" s="4">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>-7.4300000000000637</v>
+      </c>
+      <c r="E7" s="5">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v>-1.0977321415380163E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f>SUBTOTAL(103,[Data])</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUBTOTAL(109,[Prize])</f>
+        <v>1013.73</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUBTOTAL(109,[Buy-In])</f>
+        <v>1239.03</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUBTOTAL(109,[Profit])</f>
+        <v>-225.30000000000007</v>
+      </c>
+      <c r="E8" s="7">
+        <f>SUBTOTAL(101,[%ROI])</f>
+        <v>-0.36920013546725194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="9">
+        <f>A2*B2*C2*D2</f>
+        <v>4.8000000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="10680" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="10680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="54">
     <dxf>
       <font>
         <b val="0"/>
@@ -159,6 +159,15 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -177,9 +186,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -216,30 +222,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -261,9 +243,6 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -282,12 +261,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -306,8 +279,11 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -321,12 +297,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -347,6 +318,35 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -401,6 +401,35 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -464,6 +493,12 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
@@ -570,6 +605,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
@@ -589,66 +627,37 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H8" totalsRowCount="1" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H8" totalsRowCount="1" headerRowDxfId="53">
   <autoFilter ref="A1:H7">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="49"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="10" totalsRowDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="52"/>
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="51" totalsRowDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="5">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="11">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="10" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="9" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="6" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -658,21 +667,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G8" totalsRowCount="1" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G8" totalsRowCount="1" headerRowDxfId="44">
   <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="44"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="43"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="42"/>
-    <tableColumn id="4" name="Capital" dataDxfId="41">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="43"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="42"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="41"/>
+    <tableColumn id="4" name="Capital" dataDxfId="40">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="40"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="19" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" dataDxfId="39"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="18" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -682,21 +691,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G8" totalsRowCount="1" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G8" totalsRowCount="1" headerRowDxfId="36">
   <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="36"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="35"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="34"/>
-    <tableColumn id="4" name="Capital" dataDxfId="33">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="35"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="34"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="33"/>
+    <tableColumn id="4" name="Capital" dataDxfId="32">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="32"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="21" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" dataDxfId="31"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="20" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -706,21 +715,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E8" totalsRowCount="1" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E8" totalsRowCount="1" headerRowDxfId="26">
   <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="28"/>
-    <tableColumn id="4" name="Capital" dataDxfId="27">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="25"/>
+    <tableColumn id="4" name="Capital" dataDxfId="24">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="26">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="23">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -730,18 +739,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E8" totalsRowCount="1" headerRowDxfId="15">
-  <autoFilter ref="A1:E8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E8" totalsRowCount="1" headerRowDxfId="18">
+  <autoFilter ref="A1:E7">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="17"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="13"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="16"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="12">
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="11" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1037,7 +1046,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1111,7 +1120,7 @@
         <v>42095</v>
       </c>
       <c r="B3" s="11">
-        <f t="shared" ref="B2:B7" si="0">G2</f>
+        <f t="shared" ref="B3:B7" si="0">G2</f>
         <v>101.15</v>
       </c>
       <c r="C3" s="4">
@@ -1235,25 +1244,25 @@
         <v>275.55</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="4">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
-        <v>275.55</v>
+        <v>375.55</v>
       </c>
       <c r="F7" s="4">
-        <v>12.25</v>
+        <v>15.18</v>
       </c>
       <c r="G7" s="4">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>287.8</v>
+        <v>390.73</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>4.4456541462529482E-2</v>
+        <v>5.5089820359281436E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1263,27 +1272,27 @@
       </c>
       <c r="C8" s="4">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
-        <v>268.23</v>
+        <v>368.23</v>
       </c>
       <c r="D8" s="5">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>7.2959773328859542E-2</v>
+        <v>6.1103114901012938E-2</v>
       </c>
       <c r="E8" s="5">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.1805975671977276E-2</v>
+        <v>9.9338566453703869E-3</v>
       </c>
       <c r="F8" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>19.569999999999997</v>
+        <v>22.499999999999996</v>
       </c>
       <c r="G8" s="5">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.6383594980943892E-2</v>
+        <v>2.8117800388731906E-2</v>
       </c>
       <c r="H8" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.16911763568156735</v>
+        <v>0.18102004941522587</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1320,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1504,15 +1513,15 @@
         <v>40.15999999999994</v>
       </c>
       <c r="E7" s="4">
-        <v>-6.31</v>
+        <v>4.51</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>33.849999999999937</v>
+        <v>44.669999999999938</v>
       </c>
       <c r="G7" s="5">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E7/D7,0)</f>
-        <v>-0.15712151394422333</v>
+        <v>0.11230079681274917</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1522,11 +1531,11 @@
       </c>
       <c r="F8" s="5">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-0.14121846691203643</v>
+        <v>-0.10058751838810198</v>
       </c>
       <c r="G8" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.59885980455476884</v>
+        <v>-0.47063714828542136</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1534,6 +1543,9 @@
     </row>
     <row r="11" spans="1:7">
       <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1773,7 +1785,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1910,19 +1922,19 @@
       </c>
       <c r="B7" s="4">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D6</f>
-        <v>318.07000000000005</v>
+        <v>418.07000000000005</v>
       </c>
       <c r="C7" s="4">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>4.82</v>
+        <v>18.569999999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>322.89000000000004</v>
+        <v>436.64000000000004</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>1.5153896940924953E-2</v>
+        <v>4.4418398832731347E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1930,13 +1942,17 @@
         <f>SUBTOTAL(103,[Data])</f>
         <v>6</v>
       </c>
+      <c r="C8" s="4">
+        <f>SUBTOTAL(109,[Lucro])</f>
+        <v>-191.98000000000002</v>
+      </c>
       <c r="D8" s="5">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-8.7728637039843238E-2</v>
+        <v>-8.3397269166927801E-2</v>
       </c>
       <c r="E8" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.42357308236048996</v>
+        <v>-0.4069560485564705</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1954,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2083,18 +2099,18 @@
         <v>42217</v>
       </c>
       <c r="B7" s="4">
-        <v>669.42</v>
+        <v>692.33</v>
       </c>
       <c r="C7" s="4">
-        <v>676.85</v>
+        <v>688.94</v>
       </c>
       <c r="D7" s="4">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>-7.4300000000000637</v>
+        <v>3.3899999999999864</v>
       </c>
       <c r="E7" s="5">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>-1.0977321415380163E-2</v>
+        <v>4.9206026649635474E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2104,19 +2120,19 @@
       </c>
       <c r="B8" s="4">
         <f>SUBTOTAL(109,[Prize])</f>
-        <v>1013.73</v>
+        <v>1036.6400000000001</v>
       </c>
       <c r="C8" s="4">
         <f>SUBTOTAL(109,[Buy-In])</f>
-        <v>1239.03</v>
+        <v>1251.1199999999999</v>
       </c>
       <c r="D8" s="4">
         <f>SUBTOTAL(109,[Profit])</f>
-        <v>-225.30000000000007</v>
+        <v>-214.48000000000002</v>
       </c>
       <c r="E8" s="7">
         <f>SUBTOTAL(101,[%ROI])</f>
-        <v>-0.36920013546725194</v>
+        <v>-0.36522565444716604</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -120,26 +120,30 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="55">
     <dxf>
       <font>
         <b val="0"/>
@@ -204,6 +208,9 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -240,9 +247,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -297,7 +301,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -321,17 +325,8 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -345,6 +340,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -448,6 +444,35 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -466,6 +491,41 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -552,6 +612,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
@@ -571,93 +634,37 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H8" totalsRowCount="1" headerRowDxfId="53">
-  <autoFilter ref="A1:H7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H9" totalsRowCount="1" headerRowDxfId="54">
+  <autoFilter ref="A1:H8">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="52"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="51" totalsRowDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="53"/>
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="52" totalsRowDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="11">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="10" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="13" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="9" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="12" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="11"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="10" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="6" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="9" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -667,21 +674,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G8" totalsRowCount="1" headerRowDxfId="44">
-  <autoFilter ref="A1:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G9" totalsRowCount="1" headerRowDxfId="45">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="43"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="42"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="41"/>
-    <tableColumn id="4" name="Capital" dataDxfId="40">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="44"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="43"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="42"/>
+    <tableColumn id="4" name="Capital" dataDxfId="41">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="39"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" dataDxfId="40"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="17" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="16" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -691,21 +698,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G8" totalsRowCount="1" headerRowDxfId="36">
-  <autoFilter ref="A1:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G9" totalsRowCount="1" headerRowDxfId="37">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="35"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="34"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="33"/>
-    <tableColumn id="4" name="Capital" dataDxfId="32">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="36"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="35"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="34"/>
+    <tableColumn id="4" name="Capital" dataDxfId="33">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="31"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" dataDxfId="32"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="8" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -715,21 +722,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E8" totalsRowCount="1" headerRowDxfId="26">
-  <autoFilter ref="A1:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E9" totalsRowCount="1" headerRowDxfId="29">
+  <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="25"/>
-    <tableColumn id="4" name="Capital" dataDxfId="24">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="28"/>
+    <tableColumn id="4" name="Capital" dataDxfId="27">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="23">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -739,18 +746,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E8" totalsRowCount="1" headerRowDxfId="18">
-  <autoFilter ref="A1:E7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E9" totalsRowCount="1" headerRowDxfId="23">
+  <autoFilter ref="A1:E8">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="17"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="22"/>
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="3"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1046,12 +1053,12 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1064,7 +1071,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1090,7 +1097,7 @@
       <c r="A2" s="3">
         <v>42064</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="4">
@@ -1119,7 +1126,7 @@
       <c r="A3" s="3">
         <v>42095</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f t="shared" ref="B3:B7" si="0">G2</f>
         <v>101.15</v>
       </c>
@@ -1149,7 +1156,7 @@
       <c r="A4" s="3">
         <v>42125</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <f t="shared" si="0"/>
         <v>217.52</v>
       </c>
@@ -1179,7 +1186,7 @@
       <c r="A5" s="3">
         <v>42156</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <f t="shared" si="0"/>
         <v>232.16000000000003</v>
       </c>
@@ -1209,7 +1216,7 @@
       <c r="A6" s="3">
         <v>42186</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1239,7 +1246,7 @@
       <c r="A7" s="3">
         <v>42217</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>275.55</v>
       </c>
@@ -1266,37 +1273,65 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="A8" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B8" s="15">
+        <f>G7</f>
+        <v>390.73</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
+        <v>390.73</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="G8" s="12">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>391.72</v>
+      </c>
+      <c r="H8" s="13">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>2.533718936349909E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="4">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
         <v>368.23</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="6">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>6.1103114901012938E-2</v>
-      </c>
-      <c r="E8" s="5">
+        <v>6.3791651956657508E-2</v>
+      </c>
+      <c r="E9" s="6">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>9.9338566453703869E-3</v>
-      </c>
-      <c r="F8" s="4">
+        <v>8.8733591782796939E-3</v>
+      </c>
+      <c r="F9" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>22.499999999999996</v>
-      </c>
-      <c r="G8" s="5">
+        <v>23.489999999999995</v>
+      </c>
+      <c r="G9" s="6">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.8117800388731906E-2</v>
-      </c>
-      <c r="H8" s="6">
+        <v>2.4423342067775522E-2</v>
+      </c>
+      <c r="H9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.18102004941522587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="G9" s="5"/>
+        <v>0.18401242227863812</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="E10" s="4"/>
@@ -1332,7 +1367,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1513,33 +1548,56 @@
         <v>40.15999999999994</v>
       </c>
       <c r="E7" s="4">
-        <v>4.51</v>
+        <v>6.52</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>44.669999999999938</v>
+        <v>46.679999999999936</v>
       </c>
       <c r="G7" s="5">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E7/D7,0)</f>
-        <v>0.11230079681274917</v>
+        <v>0.162350597609562</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="A8" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <f>B8+F7</f>
+        <v>46.679999999999936</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="F8" s="12">
+        <f>D8+E8-C8</f>
+        <v>46.839999999999932</v>
+      </c>
+      <c r="G8" s="13">
+        <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
+        <v>3.4275921165381369E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>6</v>
-      </c>
-      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-0.10058751838810198</v>
-      </c>
-      <c r="G8" s="6">
+        <v>-8.0653558685672033E-2</v>
+      </c>
+      <c r="G9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.47063714828542136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="G9" s="5"/>
+        <v>-0.44492151389498846</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" s="4"/>
@@ -1561,7 +1619,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1739,33 +1797,52 @@
         <v>2.3599999999999994</v>
       </c>
       <c r="E7" s="4">
-        <v>-1.1200000000000001</v>
+        <v>-2.12</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>1.2399999999999993</v>
+        <v>0.23999999999999932</v>
       </c>
       <c r="G7" s="5">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E7/D7,0)</f>
-        <v>-0.47457627118644086</v>
+        <v>-0.89830508474576298</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="A8" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
+        <f>B8+F7</f>
+        <v>0.23999999999999932</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <f>D8+E8-C8</f>
+        <v>0.23999999999999932</v>
+      </c>
+      <c r="G8" s="13">
+        <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>6</v>
-      </c>
-      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
         <f>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</f>
-        <v>-0.45998153071830727</v>
-      </c>
-      <c r="G8" s="6">
+        <v>-0.53361051743110188</v>
+      </c>
+      <c r="G9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.97519999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="G9" s="5"/>
+        <v>-0.99519999999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="4"/>
@@ -1785,7 +1862,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1926,37 +2003,55 @@
       </c>
       <c r="C7" s="4">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>18.569999999999997</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>436.64000000000004</v>
+        <v>437.65000000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>4.4418398832731347E-2</v>
+        <v>4.6834262204893909E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B8" s="11">
+        <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D7</f>
+        <v>437.65000000000003</v>
+      </c>
+      <c r="C8" s="11">
+        <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D8" s="12">
+        <f>B8+C8</f>
+        <v>438.8</v>
+      </c>
+      <c r="E8" s="13">
+        <f>C8/B8</f>
+        <v>2.6276705129669822E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-191.98000000000002</v>
-      </c>
-      <c r="D8" s="5">
+        <v>-189.82000000000002</v>
+      </c>
+      <c r="D9" s="6">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-8.3397269166927801E-2</v>
-      </c>
-      <c r="E8" s="6">
+        <v>-7.1268881764351755E-2</v>
+      </c>
+      <c r="E9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.4069560485564705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="E9" s="5"/>
+        <v>-0.40402233901286921</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1968,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2042,10 +2137,10 @@
         <v>42125</v>
       </c>
       <c r="B4" s="4">
-        <v>3.53</v>
+        <v>3.99</v>
       </c>
       <c r="C4" s="4">
-        <v>11.01</v>
+        <v>11.47</v>
       </c>
       <c r="D4" s="4">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
@@ -2053,7 +2148,7 @@
       </c>
       <c r="E4" s="5">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>-0.67938237965485926</v>
+        <v>-0.65213600697471663</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2061,18 +2156,18 @@
         <v>42156</v>
       </c>
       <c r="B5" s="4">
-        <v>113.83</v>
+        <v>121.41</v>
       </c>
       <c r="C5" s="4">
-        <v>201.92</v>
+        <v>209.5</v>
       </c>
       <c r="D5" s="4">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>-88.089999999999989</v>
+        <v>-88.09</v>
       </c>
       <c r="E5" s="5">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>-0.4362618858954041</v>
+        <v>-0.42047732696897377</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2080,18 +2175,18 @@
         <v>42186</v>
       </c>
       <c r="B6" s="4">
-        <v>226.95</v>
+        <v>235.4</v>
       </c>
       <c r="C6" s="4">
-        <v>349.25</v>
+        <v>357.7</v>
       </c>
       <c r="D6" s="4">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>-122.30000000000001</v>
+        <v>-122.29999999999998</v>
       </c>
       <c r="E6" s="5">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>-0.35017895490336437</v>
+        <v>-0.34190662566396418</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2099,40 +2194,59 @@
         <v>42217</v>
       </c>
       <c r="B7" s="4">
-        <v>692.33</v>
+        <v>706.66</v>
       </c>
       <c r="C7" s="4">
-        <v>688.94</v>
+        <v>701.26</v>
       </c>
       <c r="D7" s="4">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>3.3899999999999864</v>
+        <v>5.3999999999999773</v>
       </c>
       <c r="E7" s="5">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>4.9206026649635474E-3</v>
+        <v>7.7004249493768037E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2.46</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D8" s="11">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="E8" s="13">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v>6.9565217391304418E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
         <f>SUBTOTAL(109,[Prize])</f>
-        <v>1036.6400000000001</v>
-      </c>
-      <c r="C8" s="4">
+        <v>1069.92</v>
+      </c>
+      <c r="C9" s="4">
         <f>SUBTOTAL(109,[Buy-In])</f>
-        <v>1251.1199999999999</v>
-      </c>
-      <c r="D8" s="4">
+        <v>1282.2299999999998</v>
+      </c>
+      <c r="D9" s="4">
         <f>SUBTOTAL(109,[Profit])</f>
-        <v>-214.48000000000002</v>
-      </c>
-      <c r="E8" s="7">
+        <v>-212.31000000000003</v>
+      </c>
+      <c r="E9" s="6">
         <f>SUBTOTAL(101,[%ROI])</f>
-        <v>-0.36522565444716604</v>
+        <v>-0.26745086345339469</v>
       </c>
     </row>
   </sheetData>
@@ -2169,10 +2283,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0.8</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>A2*B2*C2*D2</f>
         <v>4.8000000000000007</v>
       </c>

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="10680" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="888" sheetId="3" r:id="rId3"/>
     <sheet name="Totais" sheetId="4" r:id="rId4"/>
     <sheet name="ROI Poker" sheetId="5" r:id="rId5"/>
-    <sheet name="tmp" sheetId="6" r:id="rId6"/>
+    <sheet name="trades" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Data</t>
   </si>
@@ -64,17 +64,85 @@
   </si>
   <si>
     <t>%Rent/Mês</t>
+  </si>
+  <si>
+    <t>Forex</t>
+  </si>
+  <si>
+    <t>Tick Value</t>
+  </si>
+  <si>
+    <t>AUDUSD</t>
+  </si>
+  <si>
+    <t>Point Value</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>EURGBP</t>
+  </si>
+  <si>
+    <t>EURJPY</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Tick</t>
+  </si>
+  <si>
+    <t>C Start</t>
+  </si>
+  <si>
+    <t>A Start</t>
+  </si>
+  <si>
+    <t>B Start</t>
+  </si>
+  <si>
+    <t>B Vol</t>
+  </si>
+  <si>
+    <t>A Vol</t>
+  </si>
+  <si>
+    <t>C Vol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +165,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,12 +190,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -128,7 +204,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -137,13 +212,207 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Separador de milhares" xfId="3" builtinId="3"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="71">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -163,15 +432,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -190,6 +450,44 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -208,9 +506,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -247,6 +542,38 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -283,9 +610,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -304,6 +628,41 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -322,6 +681,188 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -343,66 +884,6 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -425,246 +906,37 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H9" totalsRowCount="1" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H9" totalsRowCount="1" headerRowDxfId="70">
   <autoFilter ref="A1:H8">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="53"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="52" totalsRowDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="69"/>
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="14">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="13" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="12" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="11"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="10" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="9" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -674,21 +946,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G9" totalsRowCount="1" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G9" totalsRowCount="1" headerRowDxfId="54">
   <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="44"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="43"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="42"/>
-    <tableColumn id="4" name="Capital" dataDxfId="41">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="53"/>
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+      <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Retirada" dataDxfId="50"/>
+    <tableColumn id="4" name="Capital" dataDxfId="49">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="40"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="17" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="48"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="16" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -698,21 +972,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G9" totalsRowCount="1" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G9" totalsRowCount="1" headerRowDxfId="43">
   <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="36"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="35"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="34"/>
-    <tableColumn id="4" name="Capital" dataDxfId="33">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="42"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="41"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="40"/>
+    <tableColumn id="4" name="Capital" dataDxfId="39">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="32"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" dataDxfId="38"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -722,21 +996,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E9" totalsRowCount="1" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E9" totalsRowCount="1" headerRowDxfId="33">
   <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="28"/>
-    <tableColumn id="4" name="Capital" dataDxfId="27">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="32"/>
+    <tableColumn id="4" name="Capital" dataDxfId="31">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="6">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -746,20 +1020,90 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E9" totalsRowCount="1" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E9" totalsRowCount="1" headerRowDxfId="24">
   <autoFilter ref="A1:E8">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="22"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="3"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="1">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="23"/>
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:O10">
+    <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
+    <filterColumn colId="9"/>
+    <filterColumn colId="10"/>
+    <filterColumn colId="11"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+    <filterColumn colId="14"/>
+  </autoFilter>
+  <tableColumns count="15">
+    <tableColumn id="9" name="Patrimonio" dataCellStyle="Moeda"/>
+    <tableColumn id="8" name="Risk" dataDxfId="13" dataCellStyle="Porcentagem"/>
+    <tableColumn id="14" name="A" dataDxfId="12" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="B" dataDxfId="9" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="C" dataDxfId="8" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="4" name="D" dataDxfId="7" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="1" name="Forex"/>
+    <tableColumn id="2" name="Tick" dataDxfId="11" dataCellStyle="Separador de milhares">
+      <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Point" dataDxfId="6">
+      <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="A Start" dataDxfId="1">
+      <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="B Start" dataDxfId="0">
+      <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="C Start" dataDxfId="5" dataCellStyle="Separador de milhares">
+      <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="A Vol" dataDxfId="4" dataCellStyle="Separador de milhares">
+      <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="B Vol" dataDxfId="3" dataCellStyle="Separador de milhares">
+      <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="C Vol" dataDxfId="2" dataCellStyle="Separador de milhares">
+      <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="Q1:T10">
+    <filterColumn colId="3"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Forex"/>
+    <tableColumn id="2" name="Tick Value"/>
+    <tableColumn id="3" name="Point Value"/>
+    <tableColumn id="4" name="Spread"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1053,12 +1397,12 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1071,7 +1415,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1097,7 +1441,7 @@
       <c r="A2" s="3">
         <v>42064</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
       <c r="C2" s="4">
@@ -1126,7 +1470,7 @@
       <c r="A3" s="3">
         <v>42095</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <f t="shared" ref="B3:B7" si="0">G2</f>
         <v>101.15</v>
       </c>
@@ -1156,7 +1500,7 @@
       <c r="A4" s="3">
         <v>42125</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <f t="shared" si="0"/>
         <v>217.52</v>
       </c>
@@ -1186,7 +1530,7 @@
       <c r="A5" s="3">
         <v>42156</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f t="shared" si="0"/>
         <v>232.16000000000003</v>
       </c>
@@ -1216,7 +1560,7 @@
       <c r="A6" s="3">
         <v>42186</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1246,7 +1590,7 @@
       <c r="A7" s="3">
         <v>42217</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>275.55</v>
       </c>
@@ -1276,30 +1620,30 @@
       <c r="A8" s="3">
         <v>42248</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <f>G7</f>
         <v>390.73</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>390.73</v>
       </c>
-      <c r="F8" s="11">
-        <v>0.99</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8" s="10">
+        <v>4.87</v>
+      </c>
+      <c r="G8" s="11">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>391.72</v>
-      </c>
-      <c r="H8" s="13">
+        <v>395.6</v>
+      </c>
+      <c r="H8" s="12">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>2.533718936349909E-3</v>
+        <v>1.2463849717196017E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1307,30 +1651,30 @@
         <f>SUBTOTAL(103,[Data])</f>
         <v>7</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
         <v>368.23</v>
       </c>
       <c r="D9" s="6">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>6.3791651956657508E-2</v>
+        <v>7.4328544659587742E-2</v>
       </c>
       <c r="E9" s="6">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>8.8733591782796939E-3</v>
+        <v>1.0294896792736097E-2</v>
       </c>
       <c r="F9" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>23.489999999999995</v>
+        <v>27.369999999999997</v>
       </c>
       <c r="G9" s="6">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.4423342067775522E-2</v>
+        <v>2.5866790148377561E-2</v>
       </c>
       <c r="H9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.18401242227863812</v>
+        <v>0.19574010582413259</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1367,16 +1711,14 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1563,24 +1905,24 @@
       <c r="A8" s="3">
         <v>42248</v>
       </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
         <f>B8+F7</f>
         <v>46.679999999999936</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.16</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f>D8+E8-C8</f>
         <v>46.839999999999932</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
         <v>3.4275921165381369E-3</v>
       </c>
@@ -1589,6 +1931,14 @@
       <c r="A9">
         <f>SUBTOTAL(103,[Data])</f>
         <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
+        <v>210.39</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,[Lucro])</f>
+        <v>-163.55000000000001</v>
       </c>
       <c r="F9" s="6">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
@@ -1812,20 +2162,20 @@
       <c r="A8" s="3">
         <v>42248</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
         <f>B8+F7</f>
         <v>0.23999999999999932</v>
       </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
         <f>D8+E8-C8</f>
         <v>0.23999999999999932</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
         <v>0</v>
       </c>
@@ -2018,21 +2368,21 @@
       <c r="A8" s="3">
         <v>42248</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D7</f>
         <v>437.65000000000003</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D8" s="12">
+        <v>5.03</v>
+      </c>
+      <c r="D8" s="11">
         <f>B8+C8</f>
-        <v>438.8</v>
-      </c>
-      <c r="E8" s="13">
+        <v>442.68</v>
+      </c>
+      <c r="E8" s="12">
         <f>C8/B8</f>
-        <v>2.6276705129669822E-3</v>
+        <v>1.1493202330629499E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2042,15 +2392,15 @@
       </c>
       <c r="C9" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-189.82000000000002</v>
+        <v>-185.94000000000003</v>
       </c>
       <c r="D9" s="6">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-7.1268881764351755E-2</v>
+        <v>-7.0100143829355255E-2</v>
       </c>
       <c r="E9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.40402233901286921</v>
+        <v>-0.39875252742528933</v>
       </c>
     </row>
   </sheetData>
@@ -2065,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2212,17 +2562,17 @@
       <c r="A8" s="3">
         <v>42248</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>2.46</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>0.16000000000000014</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v>6.9565217391304418E-2</v>
       </c>
@@ -2259,39 +2609,510 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E2"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="E2" s="8">
-        <f>A2*B2*C2*D2</f>
-        <v>4.8000000000000007</v>
-      </c>
+    <row r="1" spans="1:20">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="7">
+        <v>395.2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1.1086</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1.1159699999999999</v>
+      </c>
+      <c r="E2" s="24">
+        <v>1.1120300000000001</v>
+      </c>
+      <c r="F2" s="24">
+        <v>1.1228</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="24">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="16">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J2" s="24">
+        <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
+        <v>1.1219125000000001</v>
+      </c>
+      <c r="K2" s="24">
+        <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
+        <v>1.1212822222222223</v>
+      </c>
+      <c r="L2" s="24">
+        <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
+        <v>1.1212614285714286</v>
+      </c>
+      <c r="M2" s="26">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="N2" s="26">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="O2" s="26">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>0.1</v>
+      </c>
+      <c r="S2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15"/>
+      <c r="H3" s="24">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
+        <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="26" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3">
+        <v>0.15373999999999999</v>
+      </c>
+      <c r="S3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="H4" s="24">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="24">
+        <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="26" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="S4">
+        <v>1E-3</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="H5" s="24">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="24">
+        <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="26" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>0.1</v>
+      </c>
+      <c r="S5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="15"/>
+      <c r="H6" s="24">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="26" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="15"/>
+      <c r="H7" s="24">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
+        <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="26" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="H8" s="24">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="24">
+        <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="26" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="15"/>
+      <c r="H9" s="24">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
+        <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="24">
+        <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="26" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="24" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="19"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="25">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
+        <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
+        <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="27" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="25" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="25" t="e">
+        <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G10">
+      <formula1>$Q$2:$Q$17</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="900" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -237,10 +237,117 @@
   </cellStyles>
   <dxfs count="71">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -299,7 +406,16 @@
       <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -357,26 +473,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -773,42 +869,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -818,69 +878,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -918,25 +918,25 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="69"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Moeda">
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="68" totalsRowDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -946,23 +946,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G9" totalsRowCount="1" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G9" totalsRowCount="1" headerRowDxfId="61">
   <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="53"/>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="60"/>
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" dataDxfId="50"/>
-    <tableColumn id="4" name="Capital" dataDxfId="49">
+    <tableColumn id="3" name="Retirada" dataDxfId="57"/>
+    <tableColumn id="4" name="Capital" dataDxfId="56">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="48"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="55"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -972,21 +972,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G9" totalsRowCount="1" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G9" totalsRowCount="1" headerRowDxfId="50">
   <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="42"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="41"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="40"/>
-    <tableColumn id="4" name="Capital" dataDxfId="39">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="49"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="48"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="47"/>
+    <tableColumn id="4" name="Capital" dataDxfId="46">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="38"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" dataDxfId="45"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -996,21 +996,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E9" totalsRowCount="1" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E9" totalsRowCount="1" headerRowDxfId="40">
   <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="32"/>
-    <tableColumn id="4" name="Capital" dataDxfId="31">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="39"/>
+    <tableColumn id="4" name="Capital" dataDxfId="38">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1020,18 +1020,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E9" totalsRowCount="1" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E9" totalsRowCount="1" headerRowDxfId="31">
   <autoFilter ref="A1:E8">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="30"/>
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:O10">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
@@ -1059,34 +1059,34 @@
   </autoFilter>
   <tableColumns count="15">
     <tableColumn id="9" name="Patrimonio" dataCellStyle="Moeda"/>
-    <tableColumn id="8" name="Risk" dataDxfId="13" dataCellStyle="Porcentagem"/>
-    <tableColumn id="14" name="A" dataDxfId="12" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="B" dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="C" dataDxfId="8" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="4" name="D" dataDxfId="7" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="8" name="Risk" dataDxfId="20" dataCellStyle="Porcentagem"/>
+    <tableColumn id="14" name="A" dataDxfId="19" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="B" dataDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="C" dataDxfId="17" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="4" name="D" dataDxfId="16" dataCellStyle="Separador de milhares"/>
     <tableColumn id="1" name="Forex"/>
-    <tableColumn id="2" name="Tick" dataDxfId="11" dataCellStyle="Separador de milhares">
+    <tableColumn id="2" name="Tick" dataDxfId="15" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Point" dataDxfId="6">
+    <tableColumn id="3" name="Point" dataDxfId="14">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="A Start" dataDxfId="1">
+    <tableColumn id="19" name="A Start" dataDxfId="13">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="B Start" dataDxfId="0">
+    <tableColumn id="18" name="B Start" dataDxfId="12">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="C Start" dataDxfId="5" dataCellStyle="Separador de milhares">
+    <tableColumn id="7" name="C Start" dataDxfId="11" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="A Vol" dataDxfId="4" dataCellStyle="Separador de milhares">
+    <tableColumn id="20" name="A Vol" dataDxfId="10" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="B Vol" dataDxfId="3" dataCellStyle="Separador de milhares">
+    <tableColumn id="21" name="B Vol" dataDxfId="9" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="C Vol" dataDxfId="2" dataCellStyle="Separador de milhares">
+    <tableColumn id="22" name="C Vol" dataDxfId="8" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1095,7 +1095,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="Q1:T10">
     <filterColumn colId="3"/>
   </autoFilter>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1635,15 +1635,15 @@
         <v>390.73</v>
       </c>
       <c r="F8" s="10">
-        <v>4.87</v>
+        <v>8</v>
       </c>
       <c r="G8" s="11">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>395.6</v>
+        <v>398.73</v>
       </c>
       <c r="H8" s="12">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>1.2463849717196017E-2</v>
+        <v>2.0474496455352799E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1658,23 +1658,23 @@
       </c>
       <c r="D9" s="6">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>7.4328544659587742E-2</v>
+        <v>8.2828666865817552E-2</v>
       </c>
       <c r="E9" s="6">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.0294896792736097E-2</v>
+        <v>1.1432970084840566E-2</v>
       </c>
       <c r="F9" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>27.369999999999997</v>
+        <v>30.499999999999996</v>
       </c>
       <c r="G9" s="6">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.5866790148377561E-2</v>
+        <v>2.7022404809830647E-2</v>
       </c>
       <c r="H9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.19574010582413259</v>
+        <v>0.20520084023067842</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1711,7 +1711,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2374,15 +2374,15 @@
       </c>
       <c r="C8" s="10">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>5.03</v>
+        <v>8.16</v>
       </c>
       <c r="D8" s="11">
         <f>B8+C8</f>
-        <v>442.68</v>
+        <v>445.81000000000006</v>
       </c>
       <c r="E8" s="12">
         <f>C8/B8</f>
-        <v>1.1493202330629499E-2</v>
+        <v>1.8645035987661374E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2392,15 +2392,15 @@
       </c>
       <c r="C9" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-185.94000000000003</v>
+        <v>-182.81000000000003</v>
       </c>
       <c r="D9" s="6">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-7.0100143829355255E-2</v>
+        <v>-6.9163703068590876E-2</v>
       </c>
       <c r="E9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.39875252742528933</v>
+        <v>-0.39450136498479327</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -170,6 +170,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -235,7 +236,7 @@
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
     <cellStyle name="Separador de milhares" xfId="3" builtinId="3"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="72">
     <dxf>
       <font>
         <b val="0"/>
@@ -334,6 +335,111 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -528,6 +634,35 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -546,44 +681,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -620,6 +717,38 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -650,6 +779,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
@@ -688,6 +820,41 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -706,22 +873,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -758,185 +910,37 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H9" totalsRowCount="1" headerRowDxfId="70">
-  <autoFilter ref="A1:H8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H10" totalsRowCount="1" headerRowDxfId="71">
+  <autoFilter ref="A1:H9">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="69"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="68" totalsRowDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="70"/>
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="69" totalsRowDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="5">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -946,23 +950,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G9" totalsRowCount="1" headerRowDxfId="61">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G10" totalsRowCount="1" headerRowDxfId="62">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="60"/>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="61"/>
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="16">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" dataDxfId="57"/>
-    <tableColumn id="4" name="Capital" dataDxfId="56">
+    <tableColumn id="3" name="Retirada" dataDxfId="59"/>
+    <tableColumn id="4" name="Capital" dataDxfId="58">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="55"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="15"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="14" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="13" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -972,21 +976,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G9" totalsRowCount="1" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G9" totalsRowCount="1" headerRowDxfId="54">
   <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="49"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="48"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="47"/>
-    <tableColumn id="4" name="Capital" dataDxfId="46">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="53"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="52"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="51"/>
+    <tableColumn id="4" name="Capital" dataDxfId="50">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="45"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" dataDxfId="49"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="8" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -996,21 +1000,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E9" totalsRowCount="1" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E9" totalsRowCount="1" headerRowDxfId="46">
   <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="39"/>
-    <tableColumn id="4" name="Capital" dataDxfId="38">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="45"/>
+    <tableColumn id="4" name="Capital" dataDxfId="44">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1020,18 +1024,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E9" totalsRowCount="1" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E9" totalsRowCount="1" headerRowDxfId="37">
   <autoFilter ref="A1:E8">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="30"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="36"/>
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="10">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="9" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1040,7 +1044,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:O10">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
@@ -1059,34 +1063,34 @@
   </autoFilter>
   <tableColumns count="15">
     <tableColumn id="9" name="Patrimonio" dataCellStyle="Moeda"/>
-    <tableColumn id="8" name="Risk" dataDxfId="20" dataCellStyle="Porcentagem"/>
-    <tableColumn id="14" name="A" dataDxfId="19" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="B" dataDxfId="18" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="C" dataDxfId="17" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="4" name="D" dataDxfId="16" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="8" name="Risk" dataDxfId="30" dataCellStyle="Porcentagem"/>
+    <tableColumn id="14" name="A" dataDxfId="29" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="B" dataDxfId="28" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="C" dataDxfId="27" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="4" name="D" dataDxfId="26" dataCellStyle="Separador de milhares"/>
     <tableColumn id="1" name="Forex"/>
-    <tableColumn id="2" name="Tick" dataDxfId="15" dataCellStyle="Separador de milhares">
+    <tableColumn id="2" name="Tick" dataDxfId="25" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Point" dataDxfId="14">
+    <tableColumn id="3" name="Point" dataDxfId="24">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="A Start" dataDxfId="13">
+    <tableColumn id="19" name="A Start" dataDxfId="23">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="B Start" dataDxfId="12">
+    <tableColumn id="18" name="B Start" dataDxfId="22">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="C Start" dataDxfId="11" dataCellStyle="Separador de milhares">
+    <tableColumn id="7" name="C Start" dataDxfId="21" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="A Vol" dataDxfId="10" dataCellStyle="Separador de milhares">
+    <tableColumn id="20" name="A Vol" dataDxfId="20" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="B Vol" dataDxfId="9" dataCellStyle="Separador de milhares">
+    <tableColumn id="21" name="B Vol" dataDxfId="19" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="C Vol" dataDxfId="8" dataCellStyle="Separador de milhares">
+    <tableColumn id="22" name="C Vol" dataDxfId="18" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1095,7 +1099,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="Q1:T10">
     <filterColumn colId="3"/>
   </autoFilter>
@@ -1396,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1628,57 +1632,80 @@
         <v>0</v>
       </c>
       <c r="D8" s="11">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E8" s="11">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>390.73</v>
       </c>
       <c r="F8" s="10">
-        <v>8</v>
+        <v>12.26</v>
       </c>
       <c r="G8" s="11">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>398.73</v>
+        <v>304.99</v>
       </c>
       <c r="H8" s="12">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>2.0474496455352799E-2</v>
+        <v>3.1377165817828165E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="A9" s="3">
+        <v>42278</v>
+      </c>
+      <c r="B9" s="14">
+        <f>G8</f>
+        <v>304.99</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
+        <v>304.99</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="G9" s="11">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>304.7</v>
+      </c>
+      <c r="H9" s="12">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>-9.508508475687727E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>7</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="4">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
-        <v>368.23</v>
-      </c>
-      <c r="D9" s="6">
+        <v>270.23</v>
+      </c>
+      <c r="D10" s="6">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>8.2828666865817552E-2</v>
-      </c>
-      <c r="E9" s="6">
+        <v>0.12755800614291529</v>
+      </c>
+      <c r="E10" s="6">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.1432970084840566E-2</v>
-      </c>
-      <c r="F9" s="4">
+        <v>1.5119946821561037E-2</v>
+      </c>
+      <c r="F10" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>30.499999999999996</v>
-      </c>
-      <c r="G9" s="6">
+        <v>34.47</v>
+      </c>
+      <c r="G10" s="6">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.7022404809830647E-2</v>
-      </c>
-      <c r="H9" s="6">
+        <v>2.4843862518347581E-2</v>
+      </c>
+      <c r="H10" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.20520084023067842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="E10" s="4"/>
+        <v>0.21691890168618522</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="D11" s="4"/>
@@ -1710,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1909,44 +1936,64 @@
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="10">
         <f>B8+F7</f>
         <v>46.679999999999936</v>
       </c>
       <c r="E8" s="10">
-        <v>0.16</v>
+        <v>-12.46</v>
       </c>
       <c r="F8" s="11">
         <f>D8+E8-C8</f>
-        <v>46.839999999999932</v>
+        <v>24.219999999999935</v>
       </c>
       <c r="G8" s="12">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
-        <v>3.4275921165381369E-3</v>
+        <v>-0.26692373607540743</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="A9" s="3">
+        <v>42278</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
+        <f>B9+F8</f>
+        <v>24.219999999999935</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11">
+        <f>D9+E9-C9</f>
+        <v>24.219999999999935</v>
+      </c>
+      <c r="G9" s="12">
+        <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E9/D9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
-        <v>210.39</v>
-      </c>
-      <c r="E9" s="4">
+        <v>200.39</v>
+      </c>
+      <c r="E10" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-163.55000000000001</v>
-      </c>
-      <c r="F9" s="6">
+        <v>-176.17000000000002</v>
+      </c>
+      <c r="F10" s="6">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-8.0653558685672033E-2</v>
-      </c>
-      <c r="G9" s="6">
+        <v>-0.10669001317392468</v>
+      </c>
+      <c r="G10" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.44492151389498846</v>
+        <v>-0.5944751111333586</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1969,7 +2016,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2162,22 +2209,24 @@
       <c r="A8" s="3">
         <v>42248</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10">
+        <v>10</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10">
         <f>B8+F7</f>
-        <v>0.23999999999999932</v>
+        <v>10.239999999999998</v>
       </c>
       <c r="E8" s="10">
-        <v>0</v>
+        <v>-2.78</v>
       </c>
       <c r="F8" s="11">
         <f>D8+E8-C8</f>
-        <v>0.23999999999999932</v>
+        <v>7.4599999999999991</v>
       </c>
       <c r="G8" s="12">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
-        <v>0</v>
+        <v>-0.271484375</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2187,11 +2236,11 @@
       </c>
       <c r="F9" s="6">
         <f>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</f>
-        <v>-0.53361051743110188</v>
+        <v>-0.55424404033307983</v>
       </c>
       <c r="G9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.99519999999999997</v>
+        <v>-0.99650312500000005</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2212,7 +2261,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2370,19 +2419,19 @@
       </c>
       <c r="B8" s="10">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D7</f>
-        <v>437.65000000000003</v>
+        <v>339.65000000000003</v>
       </c>
       <c r="C8" s="10">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>8.16</v>
+        <v>-2.9800000000000009</v>
       </c>
       <c r="D8" s="11">
         <f>B8+C8</f>
-        <v>445.81000000000006</v>
+        <v>336.67</v>
       </c>
       <c r="E8" s="12">
         <f>C8/B8</f>
-        <v>1.8645035987661374E-2</v>
+        <v>-8.7737376711320494E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2392,15 +2441,15 @@
       </c>
       <c r="C9" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-182.81000000000003</v>
+        <v>-193.95000000000002</v>
       </c>
       <c r="D9" s="6">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-6.9163703068590876E-2</v>
+        <v>-7.2785014106907964E-2</v>
       </c>
       <c r="E9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.39450136498479327</v>
+        <v>-0.41079951540781401</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2465,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2563,18 +2612,18 @@
         <v>42248</v>
       </c>
       <c r="B8" s="10">
-        <v>2.46</v>
+        <v>354.24</v>
       </c>
       <c r="C8" s="10">
-        <v>2.2999999999999998</v>
+        <v>366.7</v>
       </c>
       <c r="D8" s="10">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>0.16000000000000014</v>
+        <v>-12.45999999999998</v>
       </c>
       <c r="E8" s="12">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>6.9565217391304418E-2</v>
+        <v>-3.3978729206435722E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2584,19 +2633,19 @@
       </c>
       <c r="B9" s="4">
         <f>SUBTOTAL(109,[Prize])</f>
-        <v>1069.92</v>
+        <v>1421.7</v>
       </c>
       <c r="C9" s="4">
         <f>SUBTOTAL(109,[Buy-In])</f>
-        <v>1282.2299999999998</v>
+        <v>1646.6299999999999</v>
       </c>
       <c r="D9" s="4">
         <f>SUBTOTAL(109,[Profit])</f>
-        <v>-212.31000000000003</v>
+        <v>-224.93</v>
       </c>
       <c r="E9" s="6">
         <f>SUBTOTAL(101,[%ROI])</f>
-        <v>-0.26745086345339469</v>
+        <v>-0.28815965277294275</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -256,6 +256,15 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -274,9 +283,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -295,6 +301,9 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -313,6 +322,24 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -370,6 +397,189 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -397,6 +607,26 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -433,189 +663,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -643,6 +690,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
@@ -729,6 +779,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
@@ -835,6 +888,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
@@ -854,62 +910,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -922,25 +922,25 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="70"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="69" totalsRowDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="69" totalsRowDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="5">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="9">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="8" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -954,19 +954,19 @@
   <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="61"/>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="16">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="14">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" name="Retirada" dataDxfId="59"/>
     <tableColumn id="4" name="Capital" dataDxfId="58">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="15"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="14" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="13"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="12" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="13" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="11" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -985,12 +985,12 @@
     <tableColumn id="4" name="Capital" dataDxfId="50">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" dataDxfId="49"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="49"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1000,21 +1000,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E9" totalsRowCount="1" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E9" totalsRowCount="1" headerRowDxfId="44">
   <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="45"/>
-    <tableColumn id="4" name="Capital" dataDxfId="44">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="43"/>
+    <tableColumn id="4" name="Capital" dataDxfId="42">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1024,18 +1024,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E9" totalsRowCount="1" headerRowDxfId="37">
-  <autoFilter ref="A1:E8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E10" totalsRowCount="1" headerRowDxfId="35">
+  <autoFilter ref="A1:E9">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="36"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="12"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="10">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="34"/>
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="3"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="32" totalsRowDxfId="9" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1044,7 +1044,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:O10">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
@@ -1063,34 +1063,34 @@
   </autoFilter>
   <tableColumns count="15">
     <tableColumn id="9" name="Patrimonio" dataCellStyle="Moeda"/>
-    <tableColumn id="8" name="Risk" dataDxfId="30" dataCellStyle="Porcentagem"/>
-    <tableColumn id="14" name="A" dataDxfId="29" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="B" dataDxfId="28" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="C" dataDxfId="27" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="4" name="D" dataDxfId="26" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="8" name="Risk" dataDxfId="28" dataCellStyle="Porcentagem"/>
+    <tableColumn id="14" name="A" dataDxfId="27" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="B" dataDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="C" dataDxfId="25" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="4" name="D" dataDxfId="24" dataCellStyle="Separador de milhares"/>
     <tableColumn id="1" name="Forex"/>
-    <tableColumn id="2" name="Tick" dataDxfId="25" dataCellStyle="Separador de milhares">
+    <tableColumn id="2" name="Tick" dataDxfId="23" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Point" dataDxfId="24">
+    <tableColumn id="3" name="Point" dataDxfId="22">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="A Start" dataDxfId="23">
+    <tableColumn id="19" name="A Start" dataDxfId="21">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="B Start" dataDxfId="22">
+    <tableColumn id="18" name="B Start" dataDxfId="20">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="C Start" dataDxfId="21" dataCellStyle="Separador de milhares">
+    <tableColumn id="7" name="C Start" dataDxfId="19" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="A Vol" dataDxfId="20" dataCellStyle="Separador de milhares">
+    <tableColumn id="20" name="A Vol" dataDxfId="18" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="B Vol" dataDxfId="19" dataCellStyle="Separador de milhares">
+    <tableColumn id="21" name="B Vol" dataDxfId="17" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="C Vol" dataDxfId="18" dataCellStyle="Separador de milhares">
+    <tableColumn id="22" name="C Vol" dataDxfId="16" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1099,7 +1099,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="Q1:T10">
     <filterColumn colId="3"/>
   </autoFilter>
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1631,23 +1631,21 @@
       <c r="C8" s="10">
         <v>0</v>
       </c>
-      <c r="D8" s="11">
-        <v>98</v>
-      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="11">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>390.73</v>
       </c>
       <c r="F8" s="10">
-        <v>12.26</v>
+        <v>14.26</v>
       </c>
       <c r="G8" s="11">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>304.99</v>
+        <v>404.99</v>
       </c>
       <c r="H8" s="12">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>3.1377165817828165E-2</v>
+        <v>3.6495789931666363E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1656,24 +1654,26 @@
       </c>
       <c r="B9" s="14">
         <f>G8</f>
-        <v>304.99</v>
+        <v>404.99</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>103</v>
+      </c>
       <c r="E9" s="11">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
-        <v>304.99</v>
+        <v>404.99</v>
       </c>
       <c r="F9" s="10">
-        <v>-0.28999999999999998</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G9" s="11">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>304.7</v>
+        <v>302.06</v>
       </c>
       <c r="H9" s="12">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>-9.508508475687727E-4</v>
+        <v>1.7284377392034372E-4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1684,27 +1684,27 @@
       <c r="B10" s="13"/>
       <c r="C10" s="4">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
-        <v>270.23</v>
+        <v>265.23</v>
       </c>
       <c r="D10" s="6">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>0.12755800614291529</v>
+        <v>0.13886061154469703</v>
       </c>
       <c r="E10" s="6">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.5119946821561037E-2</v>
+        <v>1.6386344674054865E-2</v>
       </c>
       <c r="F10" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>34.47</v>
+        <v>36.83</v>
       </c>
       <c r="G10" s="6">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.4843862518347581E-2</v>
+        <v>2.5622368086509084E-2</v>
       </c>
       <c r="H10" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.21691890168618522</v>
+        <v>0.22433389096340561</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1943,15 +1943,15 @@
         <v>46.679999999999936</v>
       </c>
       <c r="E8" s="10">
-        <v>-12.46</v>
+        <v>-12.62</v>
       </c>
       <c r="F8" s="11">
         <f>D8+E8-C8</f>
-        <v>24.219999999999935</v>
+        <v>24.059999999999938</v>
       </c>
       <c r="G8" s="12">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
-        <v>-0.26692373607540743</v>
+        <v>-0.27035132819194552</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1962,16 +1962,18 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10">
         <f>B9+F8</f>
-        <v>24.219999999999935</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>24.059999999999938</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6.5</v>
+      </c>
       <c r="F9" s="11">
         <f>D9+E9-C9</f>
-        <v>24.219999999999935</v>
+        <v>30.559999999999938</v>
       </c>
       <c r="G9" s="12">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E9/D9,0)</f>
-        <v>0</v>
+        <v>0.27015793848711622</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1985,15 +1987,15 @@
       </c>
       <c r="E10" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-176.17000000000002</v>
+        <v>-169.83</v>
       </c>
       <c r="F10" s="6">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-0.10669001317392468</v>
+        <v>-8.01225240023411E-2</v>
       </c>
       <c r="G10" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.5944751111333586</v>
+        <v>-0.48732766884145906</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2016,7 +2018,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2233,6 +2235,10 @@
       <c r="A9">
         <f>SUBTOTAL(103,[Data])</f>
         <v>7</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,[Lucro])</f>
+        <v>-52.54</v>
       </c>
       <c r="F9" s="6">
         <f>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</f>
@@ -2261,7 +2267,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2419,19 +2425,19 @@
       </c>
       <c r="B8" s="10">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D7</f>
-        <v>339.65000000000003</v>
+        <v>437.65000000000003</v>
       </c>
       <c r="C8" s="10">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>-2.9800000000000009</v>
+        <v>-1.1399999999999992</v>
       </c>
       <c r="D8" s="11">
         <f>B8+C8</f>
-        <v>336.67</v>
+        <v>436.51000000000005</v>
       </c>
       <c r="E8" s="12">
         <f>C8/B8</f>
-        <v>-8.7737376711320494E-3</v>
+        <v>-2.6048212041585722E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2441,15 +2447,15 @@
       </c>
       <c r="C9" s="4">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-193.95000000000002</v>
+        <v>-192.11</v>
       </c>
       <c r="D9" s="6">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-7.2785014106907964E-2</v>
+        <v>-7.1962841432028135E-2</v>
       </c>
       <c r="E9" s="6">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.41079951540781401</v>
+        <v>-0.40713261440863169</v>
       </c>
     </row>
   </sheetData>
@@ -2462,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2612,40 +2618,59 @@
         <v>42248</v>
       </c>
       <c r="B8" s="10">
-        <v>354.24</v>
+        <v>357.5</v>
       </c>
       <c r="C8" s="10">
-        <v>366.7</v>
+        <v>372.9</v>
       </c>
       <c r="D8" s="10">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>-12.45999999999998</v>
+        <v>-15.399999999999977</v>
       </c>
       <c r="E8" s="12">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>-3.3978729206435722E-2</v>
+        <v>-4.1297935103244782E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="3">
+        <v>42278</v>
+      </c>
+      <c r="B9" s="10">
+        <v>122.53</v>
+      </c>
+      <c r="C9" s="10">
+        <v>116.03</v>
+      </c>
+      <c r="D9" s="10">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>6.5</v>
+      </c>
+      <c r="E9" s="12">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v>5.6019994828923551E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <f>SUBTOTAL(109,[Prize])</f>
-        <v>1421.7</v>
-      </c>
-      <c r="C9" s="4">
+        <v>1547.49</v>
+      </c>
+      <c r="C10" s="4">
         <f>SUBTOTAL(109,[Buy-In])</f>
-        <v>1646.6299999999999</v>
-      </c>
-      <c r="D9" s="4">
+        <v>1768.86</v>
+      </c>
+      <c r="D10" s="4">
         <f>SUBTOTAL(109,[Profit])</f>
-        <v>-224.93</v>
-      </c>
-      <c r="E9" s="6">
+        <v>-221.37</v>
+      </c>
+      <c r="E10" s="6">
         <f>SUBTOTAL(101,[%ROI])</f>
-        <v>-0.28815965277294275</v>
+        <v>-0.23201624582209987</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -142,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -199,7 +207,6 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -229,6 +236,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -236,7 +244,7 @@
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
     <cellStyle name="Separador de milhares" xfId="3" builtinId="3"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="73">
     <dxf>
       <font>
         <b val="0"/>
@@ -358,7 +366,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -379,6 +387,12 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -397,9 +411,81 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -645,6 +731,35 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -663,6 +778,41 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -693,6 +843,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
@@ -731,40 +884,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -801,146 +921,37 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H10" totalsRowCount="1" headerRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H10" totalsRowCount="1" headerRowDxfId="72">
   <autoFilter ref="A1:H9">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="70"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="69" totalsRowDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="71"/>
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="9">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="19">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="18" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="17" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="16"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="15" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="14" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -950,23 +961,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G10" totalsRowCount="1" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G10" totalsRowCount="1" headerRowDxfId="63">
   <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="61"/>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="14">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="62"/>
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="13">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" dataDxfId="59"/>
-    <tableColumn id="4" name="Capital" dataDxfId="58">
+    <tableColumn id="3" name="Retirada" dataDxfId="60"/>
+    <tableColumn id="4" name="Capital" dataDxfId="59">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="13"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="12" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="11" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="11" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="10" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -976,21 +987,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G9" totalsRowCount="1" headerRowDxfId="54">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G10" totalsRowCount="1" headerRowDxfId="55">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="53"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="52"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="51"/>
-    <tableColumn id="4" name="Capital" dataDxfId="50">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="54"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="53"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="52"/>
+    <tableColumn id="4" name="Capital" dataDxfId="51">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="49"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="9"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="8" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1000,21 +1011,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E9" totalsRowCount="1" headerRowDxfId="44">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E10" totalsRowCount="1" headerRowDxfId="47">
+  <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="43"/>
-    <tableColumn id="4" name="Capital" dataDxfId="42">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="46"/>
+    <tableColumn id="4" name="Capital" dataDxfId="45">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1024,18 +1035,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E10" totalsRowCount="1" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E10" totalsRowCount="1" headerRowDxfId="41">
   <autoFilter ref="A1:E9">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="3"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="1">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="40"/>
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="3"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1044,7 +1055,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="A1:O10">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
@@ -1063,34 +1074,34 @@
   </autoFilter>
   <tableColumns count="15">
     <tableColumn id="9" name="Patrimonio" dataCellStyle="Moeda"/>
-    <tableColumn id="8" name="Risk" dataDxfId="28" dataCellStyle="Porcentagem"/>
-    <tableColumn id="14" name="A" dataDxfId="27" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="B" dataDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="C" dataDxfId="25" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="4" name="D" dataDxfId="24" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="8" name="Risk" dataDxfId="34" dataCellStyle="Porcentagem"/>
+    <tableColumn id="14" name="A" dataDxfId="33" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="B" dataDxfId="32" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="C" dataDxfId="31" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="4" name="D" dataDxfId="30" dataCellStyle="Separador de milhares"/>
     <tableColumn id="1" name="Forex"/>
-    <tableColumn id="2" name="Tick" dataDxfId="23" dataCellStyle="Separador de milhares">
+    <tableColumn id="2" name="Tick" dataDxfId="29" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Point" dataDxfId="22">
+    <tableColumn id="3" name="Point" dataDxfId="28">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="A Start" dataDxfId="21">
+    <tableColumn id="19" name="A Start" dataDxfId="27">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="B Start" dataDxfId="20">
+    <tableColumn id="18" name="B Start" dataDxfId="26">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="C Start" dataDxfId="19" dataCellStyle="Separador de milhares">
+    <tableColumn id="7" name="C Start" dataDxfId="25" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="A Vol" dataDxfId="18" dataCellStyle="Separador de milhares">
+    <tableColumn id="20" name="A Vol" dataDxfId="24" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="B Vol" dataDxfId="17" dataCellStyle="Separador de milhares">
+    <tableColumn id="21" name="B Vol" dataDxfId="23" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="C Vol" dataDxfId="16" dataCellStyle="Separador de milhares">
+    <tableColumn id="22" name="C Vol" dataDxfId="22" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1099,7 +1110,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="Q1:T10">
     <filterColumn colId="3"/>
   </autoFilter>
@@ -1401,12 +1412,12 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1416,264 +1427,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>42064</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>100</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>101.15</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>1.15E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>42095</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <f t="shared" ref="B3:B7" si="0">G2</f>
         <v>101.15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>100</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>201.15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>16.37</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>217.52</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>0.16183885318833416</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>42125</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <f t="shared" si="0"/>
         <v>217.52</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>217.52</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>14.64</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>232.16000000000003</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>6.730415593968371E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>42156</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <f t="shared" si="0"/>
         <v>232.16000000000003</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>206.77</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>232.16000000000003</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>-25.39</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>0</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>-0.10936423156443831</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>42186</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>275</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>275</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>275.55</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>2E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>42217</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>275.55</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>100</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>375.55</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>15.18</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>390.73</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>5.5089820359281436E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>42248</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f>G7</f>
         <v>390.73</v>
       </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>390.73</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>14.26</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>404.99</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>3.6495789931666363E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>42278</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <f>G8</f>
         <v>404.99</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10">
         <v>103</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>404.99</v>
       </c>
-      <c r="F9" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G9" s="10">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>302.06</v>
-      </c>
-      <c r="H9" s="12">
+        <v>310.29000000000002</v>
+      </c>
+      <c r="H9" s="11">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>1.7284377392034372E-4</v>
+        <v>2.0494333193412186E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1681,34 +1692,34 @@
         <f>SUBTOTAL(103,[Data])</f>
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="4">
+      <c r="B10" s="12"/>
+      <c r="C10" s="3">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
         <v>265.23</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>0.13886061154469703</v>
-      </c>
-      <c r="E10" s="6">
+        <v>0.16989028390453567</v>
+      </c>
+      <c r="E10" s="5">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.6386344674054865E-2</v>
-      </c>
-      <c r="F10" s="4">
+        <v>1.9807359522967083E-2</v>
+      </c>
+      <c r="F10" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>36.83</v>
-      </c>
-      <c r="G10" s="6">
+        <v>45.06</v>
+      </c>
+      <c r="G10" s="5">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.5622368086509084E-2</v>
-      </c>
-      <c r="H10" s="6">
+        <v>2.8204324869532282E-2</v>
+      </c>
+      <c r="H10" s="5">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.22433389096340561</v>
+        <v>0.24920987951480233</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8">
       <c r="D12" t="s">
@@ -1717,12 +1728,13 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
+      <c r="F12" s="30"/>
       <c r="G12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="G13" s="5"/>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1738,7 +1750,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1750,230 +1762,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>42064</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <f>B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
         <f>D2+E2-C2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>42095</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <f>B3+F2</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F7" si="0">D3+E3-C3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E3/D3,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>42125</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>64.06</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <f>B4+F3</f>
         <v>64.06</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>-7.48</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>56.58</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E4/D4,0)</f>
         <v>-0.11676553231345614</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>42156</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>296.33</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" ref="D5:D7" si="1">B5+F4</f>
         <v>352.90999999999997</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>-88.09</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>264.81999999999994</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E5/D5,0)</f>
         <v>-0.24961038225043217</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>42186</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <v>150</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="1"/>
         <v>264.81999999999994</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>-74.66</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>40.15999999999994</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E6/D6,0)</f>
         <v>-0.28192734687712412</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>42217</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="1"/>
         <v>40.15999999999994</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>6.52</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>46.679999999999936</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E7/D7,0)</f>
         <v>0.162350597609562</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>42248</v>
       </c>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f>B8+F7</f>
         <v>46.679999999999936</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>-12.62</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>D8+E8-C8</f>
         <v>24.059999999999938</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
         <v>-0.27035132819194552</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>42278</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
         <f>B9+F8</f>
         <v>24.059999999999938</v>
       </c>
-      <c r="E9" s="10">
-        <v>6.5</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="9">
+        <v>11.04</v>
+      </c>
+      <c r="F9" s="10">
         <f>D9+E9-C9</f>
-        <v>30.559999999999938</v>
-      </c>
-      <c r="G9" s="12">
+        <v>35.099999999999937</v>
+      </c>
+      <c r="G9" s="11">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E9/D9,0)</f>
-        <v>0.27015793848711622</v>
+        <v>0.45885286783042506</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1981,28 +1993,28 @@
         <f>SUBTOTAL(103,[Data])</f>
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
         <v>200.39</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-169.83</v>
-      </c>
-      <c r="F10" s="6">
+        <v>-165.29000000000002</v>
+      </c>
+      <c r="F10" s="5">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-8.01225240023411E-2</v>
-      </c>
-      <c r="G10" s="6">
+        <v>-6.405741977504309E-2</v>
+      </c>
+      <c r="G10" s="5">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.48732766884145906</v>
+        <v>-0.4111649599586128</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2015,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2029,229 +2041,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>42064</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <f>B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
         <f>D2+E2-C2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>42095</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <f>B3+F2</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F7" si="0">D3+E3-C3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E3/D3,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>42125</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D7" si="1">B4+F3</f>
         <v>0</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E4/D4,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>42156</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E5/D5,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>42186</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>50</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>-47.64</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>2.3599999999999994</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E6/D6,0)</f>
         <v>-0.95279999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>42217</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="1"/>
         <v>2.3599999999999994</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>-2.12</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0.23999999999999932</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E7/D7,0)</f>
         <v>-0.89830508474576298</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>42248</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
         <f>B8+F7</f>
         <v>10.239999999999998</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>-2.78</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>D8+E8-C8</f>
         <v>7.4599999999999991</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
         <v>-0.271484375</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="A9" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>B9+F8</f>
+        <v>7.4599999999999991</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-5.26</v>
+      </c>
+      <c r="F9" s="10">
+        <f>D9+E9-C9</f>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="G9" s="11">
+        <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E9/D9,0)</f>
+        <v>-0.70509383378016088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>7</v>
-      </c>
-      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-52.54</v>
-      </c>
-      <c r="F9" s="6">
+        <v>-57.8</v>
+      </c>
+      <c r="F10" s="5">
         <f>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</f>
-        <v>-0.55424404033307983</v>
-      </c>
-      <c r="G9" s="6">
+        <v>-0.57667833541054425</v>
+      </c>
+      <c r="G10" s="5">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.99650312500000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="4"/>
-      <c r="G10" s="1"/>
+        <v>-0.99896874999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2264,10 +2297,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2277,185 +2310,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>42064</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])</f>
         <v>100</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D7" si="0">B2+C2</f>
         <v>101.15</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>C2/B2</f>
         <v>1.15E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>42095</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D2</f>
         <v>201.15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>16.37</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>217.52</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E7" si="1">C3/B3</f>
         <v>8.1382053194133733E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>42125</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D3</f>
         <v>281.58000000000004</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>7.16</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>288.74000000000007</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
         <v>2.5427942325449246E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>42156</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D4</f>
         <v>378.30000000000007</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>-113.48</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>264.82000000000005</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>-0.29997356595294733</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>42186</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D5</f>
         <v>439.82000000000005</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>-121.75</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>318.07000000000005</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>-0.27681778909553906</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>42217</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D6</f>
         <v>418.07000000000005</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>19.579999999999998</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>437.65000000000003</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
         <v>4.6834262204893909E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>42248</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D7</f>
         <v>437.65000000000003</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>-1.1399999999999992</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>B8+C8</f>
         <v>436.51000000000005</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f>C8/B8</f>
         <v>-2.6048212041585722E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B9" s="9">
+        <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D8</f>
+        <v>333.51000000000005</v>
+      </c>
+      <c r="C9" s="9">
+        <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
+        <v>14.08</v>
+      </c>
+      <c r="D9" s="10">
+        <f>B9+C9</f>
+        <v>347.59000000000003</v>
+      </c>
+      <c r="E9" s="11">
+        <f>C9/B9</f>
+        <v>4.2217624658930759E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-192.11</v>
-      </c>
-      <c r="D9" s="6">
+        <v>-178.03</v>
+      </c>
+      <c r="D10" s="5">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-7.1962841432028135E-2</v>
-      </c>
-      <c r="E9" s="6">
+        <v>-5.8404234766818219E-2</v>
+      </c>
+      <c r="E10" s="5">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.40713261440863169</v>
+        <v>-0.38210316165121372</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2525,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2483,172 +2537,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>42064</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>42095</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="4" t="str">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>42125</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3.99</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>11.47</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>-7.48</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v>-0.65213600697471663</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>42156</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>121.41</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>209.5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>-88.09</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v>-0.42047732696897377</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>42186</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>235.4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>357.7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>-122.29999999999998</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v>-0.34190662566396418</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>42217</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>706.66</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>701.26</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>5.3999999999999773</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v>7.7004249493768037E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>42248</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>357.5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>372.9</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>-15.399999999999977</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v>-4.1297935103244782E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>42278</v>
       </c>
-      <c r="B9" s="10">
-        <v>122.53</v>
-      </c>
-      <c r="C9" s="10">
-        <v>116.03</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="B9" s="9">
+        <v>437.82</v>
+      </c>
+      <c r="C9" s="9">
+        <v>432.04</v>
+      </c>
+      <c r="D9" s="9">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>6.5</v>
-      </c>
-      <c r="E9" s="12">
+        <v>5.7799999999999727</v>
+      </c>
+      <c r="E9" s="11">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>5.6019994828923551E-2</v>
+        <v>1.3378390889732368E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2656,21 +2710,21 @@
         <f>SUBTOTAL(103,[Data])</f>
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f>SUBTOTAL(109,[Prize])</f>
-        <v>1547.49</v>
-      </c>
-      <c r="C10" s="4">
+        <v>1862.78</v>
+      </c>
+      <c r="C10" s="3">
         <f>SUBTOTAL(109,[Buy-In])</f>
-        <v>1768.86</v>
-      </c>
-      <c r="D10" s="4">
+        <v>2084.87</v>
+      </c>
+      <c r="D10" s="3">
         <f>SUBTOTAL(109,[Profit])</f>
-        <v>-221.37</v>
-      </c>
-      <c r="E10" s="6">
+        <v>-222.09000000000003</v>
+      </c>
+      <c r="E10" s="5">
         <f>SUBTOTAL(101,[%ROI])</f>
-        <v>-0.23201624582209987</v>
+        <v>-0.23912317981196504</v>
       </c>
     </row>
   </sheetData>
@@ -2694,127 +2748,127 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>395.2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>1.1086</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>1.1159699999999999</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>1.1120300000000001</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>1.1228</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0.1</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>1.1219125000000001</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="23">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>1.1212822222222223</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="23">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>1.1212614285714286</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>0.22</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>0.13</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>0.12</v>
       </c>
@@ -2832,39 +2886,39 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="7"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15"/>
-      <c r="H3" s="24">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="H3" s="23">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="26" t="e">
+      <c r="M3" s="25" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N3" s="24" t="e">
+      <c r="N3" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="24" t="e">
+      <c r="O3" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2882,39 +2936,39 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="H4" s="24">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="H4" s="23">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="23">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M4" s="26" t="e">
+      <c r="M4" s="25" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="24" t="e">
+      <c r="N4" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="24" t="e">
+      <c r="O4" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2932,39 +2986,39 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
-      <c r="H5" s="24">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="14"/>
+      <c r="H5" s="23">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="26" t="e">
+      <c r="M5" s="25" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="24" t="e">
+      <c r="N5" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="24" t="e">
+      <c r="O5" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2982,200 +3036,200 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="15"/>
-      <c r="H6" s="24">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="14"/>
+      <c r="H6" s="23">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="26" t="e">
+      <c r="M6" s="25" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="24" t="e">
+      <c r="N6" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="24" t="e">
+      <c r="O6" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15"/>
-      <c r="H7" s="24">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="14"/>
+      <c r="H7" s="23">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="23">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="26" t="e">
+      <c r="M7" s="25" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="24" t="e">
+      <c r="N7" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="24" t="e">
+      <c r="O7" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="15"/>
-      <c r="H8" s="24">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="14"/>
+      <c r="H8" s="23">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="23">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="26" t="e">
+      <c r="M8" s="25" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="24" t="e">
+      <c r="N8" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="24" t="e">
+      <c r="O8" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="15"/>
-      <c r="H9" s="24">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="H9" s="23">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="27">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M9" s="26" t="e">
+      <c r="M9" s="25" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="24" t="e">
+      <c r="N9" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="24" t="e">
+      <c r="O9" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="19"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="24">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="21">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="24">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="27" t="e">
+      <c r="M10" s="26" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="25" t="e">
+      <c r="N10" s="24" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="25" t="e">
+      <c r="O10" s="24" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -264,15 +264,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -291,6 +282,12 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -312,6 +309,189 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -330,6 +510,35 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -348,9 +557,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -393,6 +599,32 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -429,9 +661,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -450,6 +679,44 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -471,6 +738,149 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -489,6 +899,12 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -505,422 +921,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -933,25 +933,25 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="71"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="19">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="18" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="17" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="16"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="15" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="14" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -961,23 +961,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G10" totalsRowCount="1" headerRowDxfId="63">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G11" totalsRowCount="1" headerRowDxfId="56">
+  <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="62"/>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="13">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="55"/>
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="3">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" dataDxfId="60"/>
-    <tableColumn id="4" name="Capital" dataDxfId="59">
+    <tableColumn id="3" name="Retirada" dataDxfId="53"/>
+    <tableColumn id="4" name="Capital" dataDxfId="52">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="12"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="11" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="10" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -987,21 +987,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G10" totalsRowCount="1" headerRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G10" totalsRowCount="1" headerRowDxfId="48">
   <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="54"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="53"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="52"/>
-    <tableColumn id="4" name="Capital" dataDxfId="51">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="47"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="46"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="45"/>
+    <tableColumn id="4" name="Capital" dataDxfId="44">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="9"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1011,21 +1011,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E10" totalsRowCount="1" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E10" totalsRowCount="1" headerRowDxfId="37">
   <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="46"/>
-    <tableColumn id="4" name="Capital" dataDxfId="45">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="36"/>
+    <tableColumn id="4" name="Capital" dataDxfId="35">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="6">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1035,18 +1035,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E10" totalsRowCount="1" headerRowDxfId="41">
-  <autoFilter ref="A1:E9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E11" totalsRowCount="1" headerRowDxfId="28">
+  <autoFilter ref="A1:E10">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="40"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="3"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="1">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="27"/>
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="5">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1055,7 +1055,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:O10">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
@@ -1074,34 +1074,34 @@
   </autoFilter>
   <tableColumns count="15">
     <tableColumn id="9" name="Patrimonio" dataCellStyle="Moeda"/>
-    <tableColumn id="8" name="Risk" dataDxfId="34" dataCellStyle="Porcentagem"/>
-    <tableColumn id="14" name="A" dataDxfId="33" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="B" dataDxfId="32" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="C" dataDxfId="31" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="4" name="D" dataDxfId="30" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="8" name="Risk" dataDxfId="21" dataCellStyle="Porcentagem"/>
+    <tableColumn id="14" name="A" dataDxfId="20" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="B" dataDxfId="19" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="C" dataDxfId="18" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="4" name="D" dataDxfId="17" dataCellStyle="Separador de milhares"/>
     <tableColumn id="1" name="Forex"/>
-    <tableColumn id="2" name="Tick" dataDxfId="29" dataCellStyle="Separador de milhares">
+    <tableColumn id="2" name="Tick" dataDxfId="16" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Point" dataDxfId="28">
+    <tableColumn id="3" name="Point" dataDxfId="15">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="A Start" dataDxfId="27">
+    <tableColumn id="19" name="A Start" dataDxfId="14">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="B Start" dataDxfId="26">
+    <tableColumn id="18" name="B Start" dataDxfId="13">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="C Start" dataDxfId="25" dataCellStyle="Separador de milhares">
+    <tableColumn id="7" name="C Start" dataDxfId="12" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="A Vol" dataDxfId="24" dataCellStyle="Separador de milhares">
+    <tableColumn id="20" name="A Vol" dataDxfId="11" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="B Vol" dataDxfId="23" dataCellStyle="Separador de milhares">
+    <tableColumn id="21" name="B Vol" dataDxfId="10" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="C Vol" dataDxfId="22" dataCellStyle="Separador de milhares">
+    <tableColumn id="22" name="C Vol" dataDxfId="9" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1110,7 +1110,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="Q1:T10">
     <filterColumn colId="3"/>
   </autoFilter>
@@ -1747,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1977,44 +1977,66 @@
         <v>24.059999999999938</v>
       </c>
       <c r="E9" s="9">
-        <v>11.04</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F9" s="10">
         <f>D9+E9-C9</f>
-        <v>35.099999999999937</v>
+        <v>33.089999999999939</v>
       </c>
       <c r="G9" s="11">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E9/D9,0)</f>
-        <v>0.45885286783042506</v>
+        <v>0.3753117206982553</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="A10" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
+        <f>B10+F9</f>
+        <v>33.089999999999939</v>
+      </c>
+      <c r="E10" s="9">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F10" s="10">
+        <f>D10+E10-C10</f>
+        <v>42.469999999999942</v>
+      </c>
+      <c r="G10" s="11">
+        <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E10/D10,0)</f>
+        <v>0.28346932608038738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
         <v>200.39</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-165.29000000000002</v>
-      </c>
-      <c r="F10" s="5">
+        <v>-157.92000000000002</v>
+      </c>
+      <c r="F11" s="5">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-6.405741977504309E-2</v>
-      </c>
-      <c r="G10" s="5">
+        <v>-3.6967426925234803E-2</v>
+      </c>
+      <c r="G11" s="5">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.4111649599586128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" s="3"/>
+        <v>-0.28752637747698806</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2483,15 +2505,15 @@
       </c>
       <c r="C9" s="9">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>14.08</v>
+        <v>12.069999999999999</v>
       </c>
       <c r="D9" s="10">
         <f>B9+C9</f>
-        <v>347.59000000000003</v>
+        <v>345.58000000000004</v>
       </c>
       <c r="E9" s="11">
         <f>C9/B9</f>
-        <v>4.2217624658930759E-2</v>
+        <v>3.6190818866001007E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2501,15 +2523,15 @@
       </c>
       <c r="C10" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-178.03</v>
+        <v>-180.04000000000002</v>
       </c>
       <c r="D10" s="5">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-5.8404234766818219E-2</v>
+        <v>-5.9086580710196568E-2</v>
       </c>
       <c r="E10" s="5">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.38210316165121372</v>
+        <v>-0.38567625824513496</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2691,40 +2713,59 @@
         <v>42278</v>
       </c>
       <c r="B9" s="9">
-        <v>437.82</v>
+        <v>445.81</v>
       </c>
       <c r="C9" s="9">
-        <v>432.04</v>
+        <v>442.04</v>
       </c>
       <c r="D9" s="9">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>5.7799999999999727</v>
+        <v>3.7699999999999818</v>
       </c>
       <c r="E9" s="11">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>1.3378390889732368E-2</v>
+        <v>8.5286399420866476E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B10" s="9">
+        <v>36.51</v>
+      </c>
+      <c r="C10" s="9">
+        <v>27.13</v>
+      </c>
+      <c r="D10" s="9">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>9.379999999999999</v>
+      </c>
+      <c r="E10" s="11">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v>0.34574272023590119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
         <f>SUBTOTAL(109,[Prize])</f>
-        <v>1862.78</v>
-      </c>
-      <c r="C10" s="3">
+        <v>1907.28</v>
+      </c>
+      <c r="C11" s="3">
         <f>SUBTOTAL(109,[Buy-In])</f>
-        <v>2084.87</v>
-      </c>
-      <c r="D10" s="3">
+        <v>2122</v>
+      </c>
+      <c r="D11" s="3">
         <f>SUBTOTAL(109,[Profit])</f>
-        <v>-222.09000000000003</v>
-      </c>
-      <c r="E10" s="5">
+        <v>-214.72000000000003</v>
+      </c>
+      <c r="E11" s="5">
         <f>SUBTOTAL(101,[%ROI])</f>
-        <v>-0.23912317981196504</v>
+        <v>-0.15626372994050497</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,6 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -306,7 +303,184 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -557,6 +731,35 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -575,6 +778,41 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -605,6 +843,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
@@ -643,42 +884,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -716,242 +921,37 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H10" totalsRowCount="1" headerRowDxfId="72">
-  <autoFilter ref="A1:H9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H11" totalsRowCount="1" headerRowDxfId="72">
+  <autoFilter ref="A1:H10">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="71"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Moeda">
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="15">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="14" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="13" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="11" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="10" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -961,23 +961,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G11" totalsRowCount="1" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G11" totalsRowCount="1" headerRowDxfId="63">
   <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="55"/>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="3">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="62"/>
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="20">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" dataDxfId="53"/>
-    <tableColumn id="4" name="Capital" dataDxfId="52">
+    <tableColumn id="3" name="Retirada" dataDxfId="60"/>
+    <tableColumn id="4" name="Capital" dataDxfId="59">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="19"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="18" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="17" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -987,21 +987,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G10" totalsRowCount="1" headerRowDxfId="48">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G11" totalsRowCount="1" headerRowDxfId="55">
+  <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="47"/>
-    <tableColumn id="2" name="Depósito" dataDxfId="46"/>
-    <tableColumn id="3" name="Retirada" dataDxfId="45"/>
-    <tableColumn id="4" name="Capital" dataDxfId="44">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="54"/>
+    <tableColumn id="2" name="Depósito" dataDxfId="53"/>
+    <tableColumn id="3" name="Retirada" dataDxfId="52"/>
+    <tableColumn id="4" name="Capital" dataDxfId="51">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1011,21 +1011,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E10" totalsRowCount="1" headerRowDxfId="37">
-  <autoFilter ref="A1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E11" totalsRowCount="1" headerRowDxfId="47">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="36"/>
-    <tableColumn id="4" name="Capital" dataDxfId="35">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="46"/>
+    <tableColumn id="4" name="Capital" dataDxfId="45">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="5">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1035,18 +1035,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E11" totalsRowCount="1" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E11" totalsRowCount="1" headerRowDxfId="41">
   <autoFilter ref="A1:E10">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="27"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="5">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="40"/>
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="7">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="6" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1055,7 +1055,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="A1:O10">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
@@ -1074,34 +1074,34 @@
   </autoFilter>
   <tableColumns count="15">
     <tableColumn id="9" name="Patrimonio" dataCellStyle="Moeda"/>
-    <tableColumn id="8" name="Risk" dataDxfId="21" dataCellStyle="Porcentagem"/>
-    <tableColumn id="14" name="A" dataDxfId="20" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="B" dataDxfId="19" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="C" dataDxfId="18" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="4" name="D" dataDxfId="17" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="8" name="Risk" dataDxfId="34" dataCellStyle="Porcentagem"/>
+    <tableColumn id="14" name="A" dataDxfId="33" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="B" dataDxfId="32" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="C" dataDxfId="31" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="4" name="D" dataDxfId="30" dataCellStyle="Separador de milhares"/>
     <tableColumn id="1" name="Forex"/>
-    <tableColumn id="2" name="Tick" dataDxfId="16" dataCellStyle="Separador de milhares">
+    <tableColumn id="2" name="Tick" dataDxfId="29" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Point" dataDxfId="15">
+    <tableColumn id="3" name="Point" dataDxfId="28">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="A Start" dataDxfId="14">
+    <tableColumn id="19" name="A Start" dataDxfId="27">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="B Start" dataDxfId="13">
+    <tableColumn id="18" name="B Start" dataDxfId="26">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="C Start" dataDxfId="12" dataCellStyle="Separador de milhares">
+    <tableColumn id="7" name="C Start" dataDxfId="25" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="A Vol" dataDxfId="11" dataCellStyle="Separador de milhares">
+    <tableColumn id="20" name="A Vol" dataDxfId="24" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="B Vol" dataDxfId="10" dataCellStyle="Separador de milhares">
+    <tableColumn id="21" name="B Vol" dataDxfId="23" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="C Vol" dataDxfId="9" dataCellStyle="Separador de milhares">
+    <tableColumn id="22" name="C Vol" dataDxfId="22" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1110,7 +1110,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="Q1:T10">
     <filterColumn colId="3"/>
   </autoFilter>
@@ -1409,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1676,65 +1676,90 @@
         <v>404.99</v>
       </c>
       <c r="F9" s="9">
-        <v>8.3000000000000007</v>
+        <v>11.65</v>
       </c>
       <c r="G9" s="10">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>310.29000000000002</v>
+        <v>313.64</v>
       </c>
       <c r="H9" s="11">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>2.0494333193412186E-2</v>
+        <v>2.8766142373885775E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="A10" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B10" s="13">
+        <f>G9</f>
+        <v>313.64</v>
+      </c>
+      <c r="C10" s="9">
+        <v>100.95</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
+        <v>414.59</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="G10" s="10">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>422.63</v>
+      </c>
+      <c r="H10" s="11">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>2.5634485397270753E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>8</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="3">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
-        <v>265.23</v>
-      </c>
-      <c r="D10" s="5">
+        <v>366.18000000000006</v>
+      </c>
+      <c r="D11" s="5">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>0.16989028390453567</v>
-      </c>
-      <c r="E10" s="5">
+        <v>0.15415915669889121</v>
+      </c>
+      <c r="E11" s="5">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.9807359522967083E-2</v>
-      </c>
-      <c r="F10" s="3">
+        <v>1.6057793257408415E-2</v>
+      </c>
+      <c r="F11" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>45.06</v>
-      </c>
-      <c r="G10" s="5">
+        <v>56.449999999999996</v>
+      </c>
+      <c r="G11" s="5">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.8204324869532282E-2</v>
-      </c>
-      <c r="H10" s="5">
+        <v>2.8840927579917519E-2</v>
+      </c>
+      <c r="H11" s="5">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.24920987951480233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" t="s">
-        <v>14</v>
+        <v>0.29161800534986293</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="G13" s="4"/>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1749,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1999,15 +2024,15 @@
         <v>33.089999999999939</v>
       </c>
       <c r="E10" s="9">
-        <v>9.3800000000000008</v>
+        <v>-9.91</v>
       </c>
       <c r="F10" s="10">
         <f>D10+E10-C10</f>
-        <v>42.469999999999942</v>
+        <v>23.179999999999939</v>
       </c>
       <c r="G10" s="11">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E10/D10,0)</f>
-        <v>0.28346932608038738</v>
+        <v>-0.29948624962224291</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2021,15 +2046,15 @@
       </c>
       <c r="E11" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-157.92000000000002</v>
+        <v>-177.21</v>
       </c>
       <c r="F11" s="5">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-3.6967426925234803E-2</v>
+        <v>-9.9627508341719073E-2</v>
       </c>
       <c r="G11" s="5">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.28752637747698806</v>
+        <v>-0.61113401059375094</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2052,7 +2077,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2288,21 +2313,43 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="A10" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
+        <f>B10+F9</f>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F10" s="10">
+        <f>D10+E10-C10</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="G10" s="11">
+        <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E10/D10,0)</f>
+        <v>-0.90909090909090939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-57.8</v>
-      </c>
-      <c r="F10" s="5">
+        <v>-59.8</v>
+      </c>
+      <c r="F11" s="5">
         <f>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</f>
-        <v>-0.57667833541054425</v>
-      </c>
-      <c r="G10" s="5">
+        <v>-0.64318652018339373</v>
+      </c>
+      <c r="G11" s="5">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.99896874999999996</v>
+        <v>-0.99990625</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2319,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2505,33 +2552,54 @@
       </c>
       <c r="C9" s="9">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>12.069999999999999</v>
+        <v>15.42</v>
       </c>
       <c r="D9" s="10">
         <f>B9+C9</f>
-        <v>345.58000000000004</v>
+        <v>348.93000000000006</v>
       </c>
       <c r="E9" s="11">
         <f>C9/B9</f>
-        <v>3.6190818866001007E-2</v>
+        <v>4.6235495187550595E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B10" s="9">
+        <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D9</f>
+        <v>449.88000000000005</v>
+      </c>
+      <c r="C10" s="9">
+        <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
+        <v>-3.870000000000001</v>
+      </c>
+      <c r="D10" s="10">
+        <f>B10+C10</f>
+        <v>446.01000000000005</v>
+      </c>
+      <c r="E10" s="11">
+        <f>C10/B10</f>
+        <v>-8.6022939450520145E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-180.04000000000002</v>
-      </c>
-      <c r="D10" s="5">
+        <v>-180.56000000000003</v>
+      </c>
+      <c r="D11" s="5">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-5.9086580710196568E-2</v>
-      </c>
-      <c r="E10" s="5">
+        <v>-5.2591638607085045E-2</v>
+      </c>
+      <c r="E11" s="5">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.38567625824513496</v>
+        <v>-0.3850569187045908</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2615,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2732,18 +2800,18 @@
         <v>42309</v>
       </c>
       <c r="B10" s="9">
-        <v>36.51</v>
+        <v>363.32</v>
       </c>
       <c r="C10" s="9">
-        <v>27.13</v>
+        <v>373.23</v>
       </c>
       <c r="D10" s="9">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>9.379999999999999</v>
+        <v>-9.910000000000025</v>
       </c>
       <c r="E10" s="11">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>0.34574272023590119</v>
+        <v>-2.6551992069233515E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2753,19 +2821,19 @@
       </c>
       <c r="B11" s="3">
         <f>SUBTOTAL(109,[Prize])</f>
-        <v>1907.28</v>
+        <v>2234.09</v>
       </c>
       <c r="C11" s="3">
         <f>SUBTOTAL(109,[Buy-In])</f>
-        <v>2122</v>
+        <v>2468.1</v>
       </c>
       <c r="D11" s="3">
         <f>SUBTOTAL(109,[Profit])</f>
-        <v>-214.72000000000003</v>
+        <v>-234.01000000000005</v>
       </c>
       <c r="E11" s="5">
         <f>SUBTOTAL(101,[%ROI])</f>
-        <v>-0.15626372994050497</v>
+        <v>-0.20944868884123849</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +181,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,20 +211,18 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -237,6 +241,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -264,6 +273,15 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -282,9 +300,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -303,6 +318,9 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -321,9 +339,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -348,9 +363,6 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -486,9 +498,6 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -927,31 +936,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H11" totalsRowCount="1" headerRowDxfId="72">
-  <autoFilter ref="A1:H10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H14" totalsRowCount="1" headerRowDxfId="72">
+  <autoFilter ref="A1:H13">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="71"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="16" dataCellStyle="Moeda">
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="15">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="16">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="14" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="15" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="13" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="14" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="12"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="11" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="13"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="12" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="10" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="11" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -961,23 +970,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G11" totalsRowCount="1" headerRowDxfId="63">
-  <autoFilter ref="A1:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G14" totalsRowCount="1" headerRowDxfId="63">
+  <autoFilter ref="A1:G13"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="62"/>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="20">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" name="Retirada" dataDxfId="60"/>
     <tableColumn id="4" name="Capital" dataDxfId="59">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="19"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="18" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="9"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="8" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="17" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -987,8 +996,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G11" totalsRowCount="1" headerRowDxfId="55">
-  <autoFilter ref="A1:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G14" totalsRowCount="1" headerRowDxfId="55">
+  <autoFilter ref="A1:G13"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="54"/>
     <tableColumn id="2" name="Depósito" dataDxfId="53"/>
@@ -996,12 +1005,12 @@
     <tableColumn id="4" name="Capital" dataDxfId="51">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1011,21 +1020,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E11" totalsRowCount="1" headerRowDxfId="47">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E14" totalsRowCount="1" headerRowDxfId="47">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="46"/>
     <tableColumn id="4" name="Capital" dataDxfId="45">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="5">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="20">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="19" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="18" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1035,18 +1044,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E11" totalsRowCount="1" headerRowDxfId="41">
-  <autoFilter ref="A1:E10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E14" totalsRowCount="1" headerRowDxfId="41">
+  <autoFilter ref="A1:E13">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="40"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="7">
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="3"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="6" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1409,15 +1418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1430,7 +1439,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1456,7 +1465,7 @@
       <c r="A2" s="2">
         <v>42064</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
       <c r="C2" s="3">
@@ -1485,7 +1494,7 @@
       <c r="A3" s="2">
         <v>42095</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <f t="shared" ref="B3:B7" si="0">G2</f>
         <v>101.15</v>
       </c>
@@ -1515,7 +1524,7 @@
       <c r="A4" s="2">
         <v>42125</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <f t="shared" si="0"/>
         <v>217.52</v>
       </c>
@@ -1545,7 +1554,7 @@
       <c r="A5" s="2">
         <v>42156</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>232.16000000000003</v>
       </c>
@@ -1575,7 +1584,7 @@
       <c r="A6" s="2">
         <v>42186</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1605,7 +1614,7 @@
       <c r="A7" s="2">
         <v>42217</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>275.55</v>
       </c>
@@ -1635,26 +1644,26 @@
       <c r="A8" s="2">
         <v>42248</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <f>G7</f>
         <v>390.73</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10">
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>390.73</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>14.26</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>404.99</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>3.6495789931666363E-2</v>
       </c>
@@ -1663,26 +1672,26 @@
       <c r="A9" s="2">
         <v>42278</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <f>G8</f>
         <v>404.99</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9">
         <v>103</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>404.99</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>11.65</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>313.64</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>2.8766142373885775E-2</v>
       </c>
@@ -1691,75 +1700,158 @@
       <c r="A10" s="2">
         <v>42309</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <f>G9</f>
         <v>313.64</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>100.95</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>414.59</v>
       </c>
-      <c r="F10" s="9">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="8">
+        <v>9.15</v>
+      </c>
+      <c r="G10" s="9">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>422.63</v>
-      </c>
-      <c r="H10" s="11">
+        <v>423.73999999999995</v>
+      </c>
+      <c r="H10" s="10">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>2.5634485397270753E-2</v>
+        <v>2.9173574799132768E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="A11" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B11" s="7">
+        <f>G10</f>
+        <v>423.73999999999995</v>
+      </c>
+      <c r="C11" s="3">
+        <v>200</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
+        <v>623.74</v>
+      </c>
+      <c r="F11" s="3">
+        <v>16.21</v>
+      </c>
+      <c r="G11" s="31">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>639.95000000000005</v>
+      </c>
+      <c r="H11" s="32">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>3.8254590078821926E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B12" s="7">
+        <f>G11</f>
+        <v>639.95000000000005</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
+        <v>639.95000000000005</v>
+      </c>
+      <c r="F12" s="3">
+        <v>19.36</v>
+      </c>
+      <c r="G12" s="31">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>659.31000000000006</v>
+      </c>
+      <c r="H12" s="32">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>3.0252363465895771E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B13" s="11">
+        <f>G12</f>
+        <v>659.31000000000006</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
+        <v>659.31000000000006</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4.03</v>
+      </c>
+      <c r="G13" s="9">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>663.34</v>
+      </c>
+      <c r="H13" s="33">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>6.1124508956333133E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>9</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="3">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
-        <v>366.18000000000006</v>
-      </c>
-      <c r="D11" s="5">
+        <v>566.18000000000006</v>
+      </c>
+      <c r="D14" s="30">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>0.15415915669889121</v>
-      </c>
-      <c r="E11" s="5">
+        <v>0.17160620297431908</v>
+      </c>
+      <c r="E14" s="30">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.6057793257408415E-2</v>
-      </c>
-      <c r="F11" s="3">
+        <v>1.3285446814543578E-2</v>
+      </c>
+      <c r="F14" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>56.449999999999996</v>
-      </c>
-      <c r="G11" s="5">
+        <v>97.16</v>
+      </c>
+      <c r="G14" s="30">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.8840927579917519E-2</v>
-      </c>
-      <c r="H11" s="5">
+        <v>2.8119687205910626E-2</v>
+      </c>
+      <c r="H14" s="30">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.29161800534986293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="G13" s="4"/>
-    </row>
-    <row r="18" spans="4:7">
+        <v>0.39483907470892987</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="28"/>
       <c r="G18" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="H21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1969,24 +2061,24 @@
       <c r="A8" s="2">
         <v>42248</v>
       </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f>B8+F7</f>
         <v>46.679999999999936</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>-12.62</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f>D8+E8-C8</f>
         <v>24.059999999999938</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
         <v>-0.27035132819194552</v>
       </c>
@@ -1995,20 +2087,20 @@
       <c r="A9" s="2">
         <v>42278</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
         <f>B9+F8</f>
         <v>24.059999999999938</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>9.0299999999999994</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f>D9+E9-C9</f>
         <v>33.089999999999939</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E9/D9,0)</f>
         <v>0.3753117206982553</v>
       </c>
@@ -2017,51 +2109,111 @@
       <c r="A10" s="2">
         <v>42309</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
         <f>B10+F9</f>
         <v>33.089999999999939</v>
       </c>
-      <c r="E10" s="9">
-        <v>-9.91</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E10" s="8">
+        <v>-16.72</v>
+      </c>
+      <c r="F10" s="9">
         <f>D10+E10-C10</f>
-        <v>23.179999999999939</v>
-      </c>
-      <c r="G10" s="11">
+        <v>16.369999999999941</v>
+      </c>
+      <c r="G10" s="10">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E10/D10,0)</f>
-        <v>-0.29948624962224291</v>
+        <v>-0.50528860682985888</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="A11" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <f>B11+F10</f>
+        <v>16.369999999999941</v>
+      </c>
+      <c r="E11" s="3">
+        <v>29.51</v>
+      </c>
+      <c r="F11" s="31">
+        <f>D11+E11-C11</f>
+        <v>45.879999999999939</v>
+      </c>
+      <c r="G11" s="32">
+        <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E11/D11,0)</f>
+        <v>1.802687843616378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f>B12+F11</f>
+        <v>45.879999999999939</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-27.1</v>
+      </c>
+      <c r="F12" s="31">
+        <f>D12+E12-C12</f>
+        <v>18.779999999999937</v>
+      </c>
+      <c r="G12" s="32">
+        <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E12/D12,0)</f>
+        <v>-0.59067131647776894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <f>B13+F12</f>
+        <v>18.779999999999937</v>
+      </c>
+      <c r="E13" s="8">
+        <v>-2.9</v>
+      </c>
+      <c r="F13" s="9">
+        <f>D13+E13-C13</f>
+        <v>15.879999999999937</v>
+      </c>
+      <c r="G13" s="33">
+        <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E13/D13,0)</f>
+        <v>-0.15441959531416452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
         <v>200.39</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E14" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-177.21</v>
-      </c>
-      <c r="F11" s="5">
+        <v>-184.51000000000002</v>
+      </c>
+      <c r="F14" s="30">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-9.9627508341719073E-2</v>
-      </c>
-      <c r="G11" s="5">
+        <v>-0.10437112732814025</v>
+      </c>
+      <c r="G14" s="30">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.61113401059375094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" s="3"/>
+        <v>-0.73359827818070633</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2074,7 +2226,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -2270,22 +2422,22 @@
       <c r="A8" s="2">
         <v>42248</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>10</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
         <f>B8+F7</f>
         <v>10.239999999999998</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>-2.78</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f>D8+E8-C8</f>
         <v>7.4599999999999991</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E8/D8,0)</f>
         <v>-0.271484375</v>
       </c>
@@ -2294,20 +2446,20 @@
       <c r="A9" s="2">
         <v>42278</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
         <f>B9+F8</f>
         <v>7.4599999999999991</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>-5.26</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f>D9+E9-C9</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E9/D9,0)</f>
         <v>-0.70509383378016088</v>
       </c>
@@ -2316,44 +2468,101 @@
       <c r="A10" s="2">
         <v>42309</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
         <f>B10+F9</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="E10" s="9">
-        <v>-2</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E10" s="8">
+        <v>-2.11</v>
+      </c>
+      <c r="F10" s="9">
         <f>D10+E10-C10</f>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="G10" s="11">
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="G10" s="10">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E10/D10,0)</f>
-        <v>-0.90909090909090939</v>
+        <v>-0.95909090909090933</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="A11" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <f>B11+F10</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="31">
+        <f>D11+E11-C11</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="G11" s="32">
+        <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E11/D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f>B12+F11</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="31">
+        <f>D12+E12-C12</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="G12" s="32">
+        <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E12/D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <f>B13+F12</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9">
+        <f>D13+E13-C13</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="G13" s="33">
+        <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E13/D13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-59.8</v>
-      </c>
-      <c r="F11" s="5">
+        <v>-59.91</v>
+      </c>
+      <c r="F14" s="30">
         <f>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</f>
-        <v>-0.64318652018339373</v>
-      </c>
-      <c r="G11" s="5">
+        <v>-0.56805148774862668</v>
+      </c>
+      <c r="G14" s="30">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.99990625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" s="3"/>
+        <v>-0.99995781250000004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2366,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2525,19 +2734,19 @@
       <c r="A8" s="2">
         <v>42248</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D7</f>
         <v>437.65000000000003</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>-1.1399999999999992</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f>B8+C8</f>
         <v>436.51000000000005</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f>C8/B8</f>
         <v>-2.6048212041585722E-3</v>
       </c>
@@ -2546,19 +2755,19 @@
       <c r="A9" s="2">
         <v>42278</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D8</f>
         <v>333.51000000000005</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>15.42</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <f>B9+C9</f>
         <v>348.93000000000006</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>C9/B9</f>
         <v>4.6235495187550595E-2</v>
       </c>
@@ -2567,39 +2776,102 @@
       <c r="A10" s="2">
         <v>42309</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D9</f>
         <v>449.88000000000005</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>-3.870000000000001</v>
-      </c>
-      <c r="D10" s="10">
+        <v>-9.6799999999999979</v>
+      </c>
+      <c r="D10" s="9">
         <f>B10+C10</f>
-        <v>446.01000000000005</v>
-      </c>
-      <c r="E10" s="11">
+        <v>440.20000000000005</v>
+      </c>
+      <c r="E10" s="10">
         <f>C10/B10</f>
-        <v>-8.6022939450520145E-3</v>
+        <v>-2.1516848937494434E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B11" s="3">
+        <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D10</f>
+        <v>640.20000000000005</v>
+      </c>
+      <c r="C11" s="3">
+        <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
+        <v>45.72</v>
+      </c>
+      <c r="D11" s="31">
+        <f>B11+C11</f>
+        <v>685.92000000000007</v>
+      </c>
+      <c r="E11" s="32">
+        <f>C11/B11</f>
+        <v>7.141518275538894E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B12" s="3">
+        <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D11</f>
+        <v>685.92000000000007</v>
+      </c>
+      <c r="C12" s="3">
+        <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
+        <v>-7.740000000000002</v>
+      </c>
+      <c r="D12" s="31">
+        <f>B12+C12</f>
+        <v>678.18000000000006</v>
+      </c>
+      <c r="E12" s="32">
+        <f>C12/B12</f>
+        <v>-1.1284114765570331E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B13" s="8">
+        <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D12</f>
+        <v>678.18000000000006</v>
+      </c>
+      <c r="C13" s="8">
+        <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
+        <v>1.1300000000000003</v>
+      </c>
+      <c r="D13" s="9">
+        <f>B13+C13</f>
+        <v>679.31000000000006</v>
+      </c>
+      <c r="E13" s="33">
+        <f>C13/B13</f>
+        <v>1.6662243062313844E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-180.56000000000003</v>
-      </c>
-      <c r="D11" s="5">
+        <v>-147.26000000000005</v>
+      </c>
+      <c r="D14" s="30">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-5.2591638607085045E-2</v>
-      </c>
-      <c r="E11" s="5">
+        <v>-3.6005864986298097E-2</v>
+      </c>
+      <c r="E14" s="30">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.3850569187045908</v>
+        <v>-0.35598986846825453</v>
       </c>
     </row>
   </sheetData>
@@ -2612,10 +2884,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2761,17 +3033,17 @@
       <c r="A8" s="2">
         <v>42248</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>357.5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>372.9</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>-15.399999999999977</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v>-4.1297935103244782E-2</v>
       </c>
@@ -2780,17 +3052,17 @@
       <c r="A9" s="2">
         <v>42278</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>445.81</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>442.04</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>3.7699999999999818</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v>8.5286399420866476E-3</v>
       </c>
@@ -2799,41 +3071,98 @@
       <c r="A10" s="2">
         <v>42309</v>
       </c>
-      <c r="B10" s="9">
-        <v>363.32</v>
-      </c>
-      <c r="C10" s="9">
-        <v>373.23</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="B10" s="8">
+        <v>385.01</v>
+      </c>
+      <c r="C10" s="8">
+        <v>403.84</v>
+      </c>
+      <c r="D10" s="8">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>-9.910000000000025</v>
-      </c>
-      <c r="E10" s="11">
+        <v>-18.829999999999984</v>
+      </c>
+      <c r="E10" s="10">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>-2.6551992069233515E-2</v>
+        <v>-4.6627377179080789E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B11" s="3">
+        <v>264.52</v>
+      </c>
+      <c r="C11" s="3">
+        <v>235.01</v>
+      </c>
+      <c r="D11" s="3">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>29.509999999999991</v>
+      </c>
+      <c r="E11" s="32">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v>0.12556912471809706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B12" s="3">
+        <v>239.92</v>
+      </c>
+      <c r="C12" s="3">
+        <v>267.02</v>
+      </c>
+      <c r="D12" s="3">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>-27.099999999999994</v>
+      </c>
+      <c r="E12" s="32">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v>-0.10149052505430303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B13" s="8">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>20.75</v>
+      </c>
+      <c r="D13" s="8">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>-2.8999999999999986</v>
+      </c>
+      <c r="E13" s="33">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v>-0.13975903614457824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
         <f>SUBTOTAL(109,[Prize])</f>
-        <v>2234.09</v>
-      </c>
-      <c r="C11" s="3">
+        <v>2778.0699999999997</v>
+      </c>
+      <c r="C14" s="3">
         <f>SUBTOTAL(109,[Buy-In])</f>
-        <v>2468.1</v>
-      </c>
-      <c r="D11" s="3">
+        <v>3021.4900000000002</v>
+      </c>
+      <c r="D14" s="3">
         <f>SUBTOTAL(109,[Profit])</f>
-        <v>-234.01000000000005</v>
-      </c>
-      <c r="E11" s="5">
+        <v>-243.42000000000002</v>
+      </c>
+      <c r="E14" s="30">
         <f>SUBTOTAL(101,[%ROI])</f>
-        <v>-0.20944868884123849</v>
+        <v>-0.16018966434793008</v>
       </c>
     </row>
   </sheetData>
@@ -2857,15 +3186,15 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -2881,16 +3210,16 @@
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2902,16 +3231,16 @@
       <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="27" t="s">
         <v>36</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -2928,56 +3257,56 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>395.2</v>
       </c>
       <c r="B2" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>1.1086</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>1.1159699999999999</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="21">
         <v>1.1120300000000001</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="21">
         <v>1.1228</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="21">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0.1</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="13">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="21">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>1.1219125000000001</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="21">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>1.1212822222222223</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="21">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>1.1212614285714286</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="23">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>0.22</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="23">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>0.13</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="23">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>0.12</v>
       </c>
@@ -2995,39 +3324,39 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
-      <c r="H3" s="23">
+      <c r="C3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="H3" s="21">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="21">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="25" t="e">
+      <c r="M3" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N3" s="23" t="e">
+      <c r="N3" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="23" t="e">
+      <c r="O3" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3045,39 +3374,39 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="H4" s="23">
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="H4" s="21">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="21">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M4" s="25" t="e">
+      <c r="M4" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="23" t="e">
+      <c r="N4" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="23" t="e">
+      <c r="O4" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3095,39 +3424,39 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="14"/>
-      <c r="H5" s="23">
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="H5" s="21">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="21">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="25" t="e">
+      <c r="M5" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="23" t="e">
+      <c r="N5" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="23" t="e">
+      <c r="O5" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3145,200 +3474,200 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
-      <c r="H6" s="23">
+      <c r="C6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="H6" s="21">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="21">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="25" t="e">
+      <c r="M6" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="23" t="e">
+      <c r="N6" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="23" t="e">
+      <c r="O6" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="14"/>
-      <c r="H7" s="23">
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="H7" s="21">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="21">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="25" t="e">
+      <c r="M7" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="23" t="e">
+      <c r="N7" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="23" t="e">
+      <c r="O7" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="14"/>
-      <c r="H8" s="23">
+      <c r="C8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="H8" s="21">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="13">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="21">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="25" t="e">
+      <c r="M8" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="23" t="e">
+      <c r="N8" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="23" t="e">
+      <c r="O8" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="14"/>
-      <c r="H9" s="23">
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="H9" s="21">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="13">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="25">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="21">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M9" s="25" t="e">
+      <c r="M9" s="23" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="23" t="e">
+      <c r="N9" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="23" t="e">
+      <c r="O9" s="21" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="18"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="24">
+      <c r="A10" s="16"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="22">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</f>
         <v>0</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <f>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</f>
         <v>0</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <f>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="26">
         <f>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <f>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="26" t="e">
+      <c r="M10" s="24" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="24" t="e">
+      <c r="N10" s="22" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="24" t="e">
+      <c r="O10" s="22" t="e">
         <f>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -185,6 +185,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,11 +242,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -321,6 +322,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -360,9 +364,6 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -417,7 +418,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -438,27 +439,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -477,6 +457,9 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -495,6 +478,24 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -936,31 +937,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H14" totalsRowCount="1" headerRowDxfId="72">
-  <autoFilter ref="A1:H13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H17" totalsRowCount="1" headerRowDxfId="72">
+  <autoFilter ref="A1:H16">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="71"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="16">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="13">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="15" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="12" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="14" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="11" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="13"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="12" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="9" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="11" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="8" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -970,23 +971,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G14" totalsRowCount="1" headerRowDxfId="63">
-  <autoFilter ref="A1:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G17" totalsRowCount="1" headerRowDxfId="63">
+  <autoFilter ref="A1:G16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="62"/>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="10">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="7">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" name="Retirada" dataDxfId="60"/>
     <tableColumn id="4" name="Capital" dataDxfId="59">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="9"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -996,8 +997,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G14" totalsRowCount="1" headerRowDxfId="55">
-  <autoFilter ref="A1:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:G17" totalsRowCount="1" headerRowDxfId="55">
+  <autoFilter ref="A1:G16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="54"/>
     <tableColumn id="2" name="Depósito" dataDxfId="53"/>
@@ -1005,12 +1006,12 @@
     <tableColumn id="4" name="Capital" dataDxfId="51">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="20"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="19" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="18" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1020,21 +1021,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E14" totalsRowCount="1" headerRowDxfId="47">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E17" totalsRowCount="1" headerRowDxfId="47">
+  <autoFilter ref="A1:E16"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="46"/>
     <tableColumn id="4" name="Capital" dataDxfId="45">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="20">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="19" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="16" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="18" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="15" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1044,8 +1045,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E14" totalsRowCount="1" headerRowDxfId="41">
-  <autoFilter ref="A1:E13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E17" totalsRowCount="1" headerRowDxfId="41">
+  <autoFilter ref="A1:E16">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
@@ -1420,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1645,7 +1646,7 @@
         <v>42248</v>
       </c>
       <c r="B8" s="11">
-        <f>G7</f>
+        <f t="shared" ref="B8:B13" si="1">G7</f>
         <v>390.73</v>
       </c>
       <c r="C8" s="8">
@@ -1673,7 +1674,7 @@
         <v>42278</v>
       </c>
       <c r="B9" s="11">
-        <f>G8</f>
+        <f t="shared" si="1"/>
         <v>404.99</v>
       </c>
       <c r="C9" s="8"/>
@@ -1701,7 +1702,7 @@
         <v>42309</v>
       </c>
       <c r="B10" s="11">
-        <f>G9</f>
+        <f t="shared" si="1"/>
         <v>313.64</v>
       </c>
       <c r="C10" s="8">
@@ -1729,25 +1730,25 @@
         <v>42339</v>
       </c>
       <c r="B11" s="7">
-        <f>G10</f>
+        <f t="shared" si="1"/>
         <v>423.73999999999995</v>
       </c>
       <c r="C11" s="3">
         <v>200</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>623.74</v>
       </c>
       <c r="F11" s="3">
         <v>16.21</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="29">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>639.95000000000005</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="30">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>3.8254590078821926E-2</v>
       </c>
@@ -1757,23 +1758,23 @@
         <v>42370</v>
       </c>
       <c r="B12" s="7">
-        <f>G11</f>
+        <f t="shared" si="1"/>
         <v>639.95000000000005</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>639.95000000000005</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="8">
         <v>19.36</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="29">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
         <v>659.31000000000006</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="30">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
         <v>3.0252363465895771E-2</v>
       </c>
@@ -1783,59 +1784,135 @@
         <v>42401</v>
       </c>
       <c r="B13" s="11">
-        <f>G12</f>
+        <f t="shared" si="1"/>
         <v>659.31000000000006</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <v>200</v>
+      </c>
       <c r="E13" s="9">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
         <v>659.31000000000006</v>
       </c>
-      <c r="F13" s="8">
-        <v>4.03</v>
+      <c r="F13" s="3">
+        <v>32.03</v>
       </c>
       <c r="G13" s="9">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>663.34</v>
-      </c>
-      <c r="H13" s="33">
+        <v>491.34000000000003</v>
+      </c>
+      <c r="H13" s="31">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>6.1124508956333133E-3</v>
+        <v>4.8581092354127796E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="A14" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B14" s="7">
+        <f>G13</f>
+        <v>491.34000000000003</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
+        <v>491.34000000000003</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="G14" s="29">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>492.70000000000005</v>
+      </c>
+      <c r="H14" s="4">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>2.7679407335042946E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B15" s="7">
+        <f>G14</f>
+        <v>492.70000000000005</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
+        <v>492.70000000000005</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="29">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>492.70000000000005</v>
+      </c>
+      <c r="H15" s="4">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B16" s="11">
+        <f>G15</f>
+        <v>492.70000000000005</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
+        <v>492.70000000000005</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9">
+        <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
+        <v>492.70000000000005</v>
+      </c>
+      <c r="H16" s="10">
+        <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="3">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
-        <v>566.18000000000006</v>
-      </c>
-      <c r="D14" s="30">
+        <v>366.18000000000006</v>
+      </c>
+      <c r="D17" s="33">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>0.17160620297431908</v>
-      </c>
-      <c r="E14" s="30">
+        <v>0.34551313561636349</v>
+      </c>
+      <c r="E17" s="33">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.3285446814543578E-2</v>
-      </c>
-      <c r="F14" s="3">
+        <v>1.9982051171871573E-2</v>
+      </c>
+      <c r="F17" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>97.16</v>
-      </c>
-      <c r="G14" s="30">
+        <v>126.52</v>
+      </c>
+      <c r="G17" s="33">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.8119687205910626E-2</v>
-      </c>
-      <c r="H14" s="30">
+        <v>2.5444129075487654E-2</v>
+      </c>
+      <c r="H17" s="33">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.39483907470892987</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8">
+        <v>0.45773991230619249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="D18" t="s">
         <v>10</v>
       </c>
@@ -1847,10 +1924,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:8">
+    <row r="20" spans="1:8">
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="4:8">
+    <row r="21" spans="1:8">
       <c r="H21" s="4"/>
     </row>
   </sheetData>
@@ -1864,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2068,14 +2145,14 @@
         <v>10</v>
       </c>
       <c r="D8" s="8">
-        <f>B8+F7</f>
+        <f t="shared" ref="D8:D13" si="2">B8+F7</f>
         <v>46.679999999999936</v>
       </c>
       <c r="E8" s="8">
         <v>-12.62</v>
       </c>
       <c r="F8" s="9">
-        <f>D8+E8-C8</f>
+        <f t="shared" ref="F8:F13" si="3">D8+E8-C8</f>
         <v>24.059999999999938</v>
       </c>
       <c r="G8" s="10">
@@ -2090,14 +2167,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8">
-        <f>B9+F8</f>
+        <f t="shared" si="2"/>
         <v>24.059999999999938</v>
       </c>
       <c r="E9" s="8">
         <v>9.0299999999999994</v>
       </c>
       <c r="F9" s="9">
-        <f>D9+E9-C9</f>
+        <f t="shared" si="3"/>
         <v>33.089999999999939</v>
       </c>
       <c r="G9" s="10">
@@ -2112,14 +2189,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8">
-        <f>B10+F9</f>
+        <f t="shared" si="2"/>
         <v>33.089999999999939</v>
       </c>
       <c r="E10" s="8">
         <v>-16.72</v>
       </c>
       <c r="F10" s="9">
-        <f>D10+E10-C10</f>
+        <f t="shared" si="3"/>
         <v>16.369999999999941</v>
       </c>
       <c r="G10" s="10">
@@ -2134,17 +2211,17 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <f>B11+F10</f>
+        <f t="shared" si="2"/>
         <v>16.369999999999941</v>
       </c>
       <c r="E11" s="3">
         <v>29.51</v>
       </c>
-      <c r="F11" s="31">
-        <f>D11+E11-C11</f>
+      <c r="F11" s="29">
+        <f t="shared" si="3"/>
         <v>45.879999999999939</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="30">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E11/D11,0)</f>
         <v>1.802687843616378</v>
       </c>
@@ -2156,17 +2233,17 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <f>B12+F11</f>
+        <f t="shared" si="2"/>
         <v>45.879999999999939</v>
       </c>
       <c r="E12" s="3">
         <v>-27.1</v>
       </c>
-      <c r="F12" s="31">
-        <f>D12+E12-C12</f>
+      <c r="F12" s="29">
+        <f t="shared" si="3"/>
         <v>18.779999999999937</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="30">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E12/D12,0)</f>
         <v>-0.59067131647776894</v>
       </c>
@@ -2178,41 +2255,103 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8">
-        <f>B13+F12</f>
+        <f t="shared" si="2"/>
         <v>18.779999999999937</v>
       </c>
       <c r="E13" s="8">
-        <v>-2.9</v>
+        <v>27</v>
       </c>
       <c r="F13" s="9">
-        <f>D13+E13-C13</f>
-        <v>15.879999999999937</v>
-      </c>
-      <c r="G13" s="33">
+        <f t="shared" si="3"/>
+        <v>45.779999999999937</v>
+      </c>
+      <c r="G13" s="31">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E13/D13,0)</f>
-        <v>-0.15441959531416452</v>
+        <v>1.437699680511187</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="A14" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B14" s="3">
+        <v>121.23</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <f>B14+F13</f>
+        <v>167.00999999999993</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="29">
+        <f>D14+E14-C14</f>
+        <v>167.00999999999993</v>
+      </c>
+      <c r="G14" s="4">
+        <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E14/D14,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <f>B15+F14</f>
+        <v>167.00999999999993</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="29">
+        <f>D15+E15-C15</f>
+        <v>167.00999999999993</v>
+      </c>
+      <c r="G15" s="4">
+        <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E15/D15,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <f>B16+F15</f>
+        <v>167.00999999999993</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9">
+        <f>D16+E16-C16</f>
+        <v>167.00999999999993</v>
+      </c>
+      <c r="G16" s="10">
+        <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E16/D16,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
         <f>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</f>
-        <v>200.39</v>
-      </c>
-      <c r="E14" s="3">
+        <v>321.62</v>
+      </c>
+      <c r="E17" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-184.51000000000002</v>
-      </c>
-      <c r="F14" s="30">
+        <v>-154.61000000000001</v>
+      </c>
+      <c r="F17" s="33">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-0.10437112732814025</v>
-      </c>
-      <c r="G14" s="30">
+        <v>-1.7443602210981179E-2</v>
+      </c>
+      <c r="G17" s="33">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.73359827818070633</v>
+        <v>-0.23199805888619041</v>
       </c>
     </row>
   </sheetData>
@@ -2226,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A11" sqref="A11:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2427,14 +2566,14 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8">
-        <f>B8+F7</f>
+        <f t="shared" ref="D8:D13" si="2">B8+F7</f>
         <v>10.239999999999998</v>
       </c>
       <c r="E8" s="8">
         <v>-2.78</v>
       </c>
       <c r="F8" s="9">
-        <f>D8+E8-C8</f>
+        <f t="shared" ref="F8:F13" si="3">D8+E8-C8</f>
         <v>7.4599999999999991</v>
       </c>
       <c r="G8" s="10">
@@ -2449,14 +2588,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8">
-        <f>B9+F8</f>
+        <f t="shared" si="2"/>
         <v>7.4599999999999991</v>
       </c>
       <c r="E9" s="8">
         <v>-5.26</v>
       </c>
       <c r="F9" s="9">
-        <f>D9+E9-C9</f>
+        <f t="shared" si="3"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="G9" s="10">
@@ -2471,14 +2610,14 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8">
-        <f>B10+F9</f>
+        <f t="shared" si="2"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="E10" s="8">
         <v>-2.11</v>
       </c>
       <c r="F10" s="9">
-        <f>D10+E10-C10</f>
+        <f t="shared" si="3"/>
         <v>8.9999999999999414E-2</v>
       </c>
       <c r="G10" s="10">
@@ -2493,15 +2632,15 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <f>B11+F10</f>
+        <f t="shared" si="2"/>
         <v>8.9999999999999414E-2</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="31">
-        <f>D11+E11-C11</f>
+      <c r="F11" s="29">
+        <f t="shared" si="3"/>
         <v>8.9999999999999414E-2</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="30">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E11/D11,0)</f>
         <v>0</v>
       </c>
@@ -2513,15 +2652,15 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <f>B12+F11</f>
+        <f t="shared" si="2"/>
         <v>8.9999999999999414E-2</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="31">
-        <f>D12+E12-C12</f>
+      <c r="F12" s="29">
+        <f t="shared" si="3"/>
         <v>8.9999999999999414E-2</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="30">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E12/D12,0)</f>
         <v>0</v>
       </c>
@@ -2533,33 +2672,93 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8">
-        <f>B13+F12</f>
+        <f t="shared" si="2"/>
         <v>8.9999999999999414E-2</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="9">
-        <f>D13+E13-C13</f>
+        <f t="shared" si="3"/>
         <v>8.9999999999999414E-2</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="31">
         <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E13/D13,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="A14" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <f>B14+F13</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="29">
+        <f>D14+E14-C14</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E14/D14,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <f>B15+F14</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="29">
+        <f>D15+E15-C15</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E15/D15,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <f>B16+F15</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9">
+        <f>D16+E16-C16</f>
+        <v>8.9999999999999414E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <f>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E16/D16,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>12</v>
-      </c>
-      <c r="E14" s="3">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
         <v>-59.91</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F17" s="33">
         <f>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</f>
-        <v>-0.56805148774862668</v>
-      </c>
-      <c r="G14" s="30">
+        <v>-0.48908860849414326</v>
+      </c>
+      <c r="G17" s="33">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
         <v>-0.99995781250000004</v>
       </c>
@@ -2575,7 +2774,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -2743,11 +2942,11 @@
         <v>-1.1399999999999992</v>
       </c>
       <c r="D8" s="9">
-        <f>B8+C8</f>
+        <f t="shared" ref="D8:D13" si="2">B8+C8</f>
         <v>436.51000000000005</v>
       </c>
       <c r="E8" s="10">
-        <f>C8/B8</f>
+        <f t="shared" ref="E8:E13" si="3">C8/B8</f>
         <v>-2.6048212041585722E-3</v>
       </c>
     </row>
@@ -2764,11 +2963,11 @@
         <v>15.42</v>
       </c>
       <c r="D9" s="9">
-        <f>B9+C9</f>
+        <f t="shared" si="2"/>
         <v>348.93000000000006</v>
       </c>
       <c r="E9" s="10">
-        <f>C9/B9</f>
+        <f t="shared" si="3"/>
         <v>4.6235495187550595E-2</v>
       </c>
     </row>
@@ -2785,11 +2984,11 @@
         <v>-9.6799999999999979</v>
       </c>
       <c r="D10" s="9">
-        <f>B10+C10</f>
+        <f t="shared" si="2"/>
         <v>440.20000000000005</v>
       </c>
       <c r="E10" s="10">
-        <f>C10/B10</f>
+        <f t="shared" si="3"/>
         <v>-2.1516848937494434E-2</v>
       </c>
     </row>
@@ -2805,12 +3004,12 @@
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>45.72</v>
       </c>
-      <c r="D11" s="31">
-        <f>B11+C11</f>
+      <c r="D11" s="29">
+        <f t="shared" si="2"/>
         <v>685.92000000000007</v>
       </c>
-      <c r="E11" s="32">
-        <f>C11/B11</f>
+      <c r="E11" s="30">
+        <f t="shared" si="3"/>
         <v>7.141518275538894E-2</v>
       </c>
     </row>
@@ -2826,12 +3025,12 @@
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
         <v>-7.740000000000002</v>
       </c>
-      <c r="D12" s="31">
-        <f>B12+C12</f>
+      <c r="D12" s="29">
+        <f t="shared" si="2"/>
         <v>678.18000000000006</v>
       </c>
-      <c r="E12" s="32">
-        <f>C12/B12</f>
+      <c r="E12" s="30">
+        <f t="shared" si="3"/>
         <v>-1.1284114765570331E-2</v>
       </c>
     </row>
@@ -2841,37 +3040,100 @@
       </c>
       <c r="B13" s="8">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D12</f>
-        <v>678.18000000000006</v>
+        <v>478.18000000000006</v>
       </c>
       <c r="C13" s="8">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>1.1300000000000003</v>
+        <v>59.03</v>
       </c>
       <c r="D13" s="9">
-        <f>B13+C13</f>
-        <v>679.31000000000006</v>
-      </c>
-      <c r="E13" s="33">
-        <f>C13/B13</f>
-        <v>1.6662243062313844E-3</v>
+        <f t="shared" si="2"/>
+        <v>537.21</v>
+      </c>
+      <c r="E13" s="31">
+        <f t="shared" si="3"/>
+        <v>0.12344723744196745</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B14" s="3">
+        <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D13</f>
+        <v>658.44</v>
+      </c>
+      <c r="C14" s="3">
+        <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
+        <v>1.36</v>
+      </c>
+      <c r="D14" s="29">
+        <f>B14+C14</f>
+        <v>659.80000000000007</v>
+      </c>
+      <c r="E14" s="4">
+        <f>C14/B14</f>
+        <v>2.0654881234432902E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B15" s="3">
+        <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D14</f>
+        <v>659.80000000000007</v>
+      </c>
+      <c r="C15" s="3">
+        <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <f>B15+C15</f>
+        <v>659.80000000000007</v>
+      </c>
+      <c r="E15" s="4">
+        <f>C15/B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B16" s="8">
+        <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D15</f>
+        <v>659.80000000000007</v>
+      </c>
+      <c r="C16" s="8">
+        <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <f>B16+C16</f>
+        <v>659.80000000000007</v>
+      </c>
+      <c r="E16" s="10">
+        <f>C16/B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-147.26000000000005</v>
-      </c>
-      <c r="D14" s="30">
+        <v>-88.000000000000043</v>
+      </c>
+      <c r="D17" s="33">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-3.6005864986298097E-2</v>
-      </c>
-      <c r="E14" s="30">
+        <v>-2.1318834798537467E-2</v>
+      </c>
+      <c r="E17" s="33">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.35598986846825453</v>
+        <v>-0.27620020544616308</v>
       </c>
     </row>
   </sheetData>
@@ -2884,10 +3146,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3100,7 +3362,7 @@
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>29.509999999999991</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="30">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v>0.12556912471809706</v>
       </c>
@@ -3119,7 +3381,7 @@
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
         <v>-27.099999999999994</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
         <v>-0.10149052505430303</v>
       </c>
@@ -3129,40 +3391,85 @@
         <v>42401</v>
       </c>
       <c r="B13" s="8">
-        <v>17.850000000000001</v>
+        <v>237.3</v>
       </c>
       <c r="C13" s="8">
-        <v>20.75</v>
+        <v>210.3</v>
       </c>
       <c r="D13" s="8">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>-2.8999999999999986</v>
-      </c>
-      <c r="E13" s="33">
+        <v>27</v>
+      </c>
+      <c r="E13" s="31">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v>-0.13975903614457824</v>
+        <v>0.12838801711840228</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="str">
+        <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <f>SUBTOTAL(103,[Data])</f>
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
         <f>SUBTOTAL(109,[Prize])</f>
-        <v>2778.0699999999997</v>
-      </c>
-      <c r="C14" s="3">
+        <v>2997.52</v>
+      </c>
+      <c r="C17" s="3">
         <f>SUBTOTAL(109,[Buy-In])</f>
-        <v>3021.4900000000002</v>
-      </c>
-      <c r="D14" s="3">
+        <v>3211.0400000000004</v>
+      </c>
+      <c r="D17" s="3">
         <f>SUBTOTAL(109,[Profit])</f>
-        <v>-243.42000000000002</v>
-      </c>
-      <c r="E14" s="30">
+        <v>-213.52</v>
+      </c>
+      <c r="E17" s="33">
         <f>SUBTOTAL(101,[%ROI])</f>
-        <v>-0.16018966434793008</v>
+        <v>-0.13337495902163204</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/exterior.xlsx
+++ b/stocks/exterior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="9270" windowHeight="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instaforex" sheetId="1" r:id="rId1"/>
@@ -274,15 +274,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -301,6 +292,9 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -319,12 +313,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -343,6 +331,27 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -361,9 +370,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -382,6 +388,12 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -403,6 +415,29 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -418,7 +453,149 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -439,6 +616,35 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -457,9 +663,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -499,164 +702,16 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -694,35 +749,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -741,35 +767,6 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -803,6 +800,9 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
@@ -943,25 +943,25 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="71"/>
-    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="8" name="Saldo Anterior" dataDxfId="70" totalsRowDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="13">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="5">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="12" dataCellStyle="Porcentagem">
+    <tableColumn id="3" name="Retirada" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="4" dataCellStyle="Porcentagem">
       <totalsRowFormula>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="11" dataCellStyle="Porcentagem">
+    <tableColumn id="4" name="Capital" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="10"/>
-    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="9" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Saldo Final" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -975,19 +975,19 @@
   <autoFilter ref="A1:G16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="62"/>
-    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="7">
+    <tableColumn id="2" name="Depósito" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="10">
       <totalsRowFormula>SUBTOTAL(109,[Depósito])-SUBTOTAL(109,[Retirada])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" name="Retirada" dataDxfId="60"/>
     <tableColumn id="4" name="Capital" dataDxfId="59">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="9"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="8" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1006,12 +1006,12 @@
     <tableColumn id="4" name="Capital" dataDxfId="51">
       <calculatedColumnFormula>B2+F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="20"/>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="19" dataCellStyle="Porcentagem">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>D2+E2-C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela14[[#Totals],[%Rentabilidade]])^(1/Tabela14[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="18" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela14[[#This Row],[Lucro]]&lt;&gt;0,E2/D2,0)</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1021,21 +1021,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E17" totalsRowCount="1" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:E17" totalsRowCount="1" headerRowDxfId="44">
   <autoFilter ref="A1:E16"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="46"/>
-    <tableColumn id="4" name="Capital" dataDxfId="45">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="43"/>
+    <tableColumn id="4" name="Capital" dataDxfId="42">
       <calculatedColumnFormula>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="17">
+    <tableColumn id="5" name="Lucro" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="16" dataCellStyle="Porcentagem">
+    <tableColumn id="6" name="Saldo" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="15" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%Rentabilidade" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>C2/B2</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</totalsRowFormula>
     </tableColumn>
@@ -1045,18 +1045,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E17" totalsRowCount="1" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela16" displayName="Tabela16" ref="A1:E17" totalsRowCount="1" headerRowDxfId="35">
   <autoFilter ref="A1:E16">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="40"/>
-    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="3"/>
-    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="1">
+    <tableColumn id="1" name="Data" totalsRowFunction="count" dataDxfId="34"/>
+    <tableColumn id="5" name="Prize" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Buy-In" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="13"/>
+    <tableColumn id="4" name="Profit" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="12">
       <calculatedColumnFormula>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="36" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="%ROI" totalsRowFunction="average" dataDxfId="30" totalsRowDxfId="11" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1065,7 +1065,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:O10" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:O10">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
@@ -1084,34 +1084,34 @@
   </autoFilter>
   <tableColumns count="15">
     <tableColumn id="9" name="Patrimonio" dataCellStyle="Moeda"/>
-    <tableColumn id="8" name="Risk" dataDxfId="34" dataCellStyle="Porcentagem"/>
-    <tableColumn id="14" name="A" dataDxfId="33" dataCellStyle="Porcentagem"/>
-    <tableColumn id="13" name="B" dataDxfId="32" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="C" dataDxfId="31" dataCellStyle="Separador de milhares"/>
-    <tableColumn id="4" name="D" dataDxfId="30" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="8" name="Risk" dataDxfId="28" dataCellStyle="Porcentagem"/>
+    <tableColumn id="14" name="A" dataDxfId="27" dataCellStyle="Porcentagem"/>
+    <tableColumn id="13" name="B" dataDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="C" dataDxfId="25" dataCellStyle="Separador de milhares"/>
+    <tableColumn id="4" name="D" dataDxfId="24" dataCellStyle="Separador de milhares"/>
     <tableColumn id="1" name="Forex"/>
-    <tableColumn id="2" name="Tick" dataDxfId="29" dataCellStyle="Separador de milhares">
+    <tableColumn id="2" name="Tick" dataDxfId="23" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Tick Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Point" dataDxfId="28">
+    <tableColumn id="3" name="Point" dataDxfId="22">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela7[Forex]=Tabela6[[#This Row],[Forex]]),Tabela7[Point Value])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="A Start" dataDxfId="27">
+    <tableColumn id="19" name="A Start" dataDxfId="21">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([A]-[D])/16),[D]+(ABS([A]-[D])/16))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="B Start" dataDxfId="26">
+    <tableColumn id="18" name="B Start" dataDxfId="20">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([B]-[D])/4.5),[D]+(ABS([B]-[D])/4.5))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="C Start" dataDxfId="25" dataCellStyle="Separador de milhares">
+    <tableColumn id="7" name="C Start" dataDxfId="19" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>IF([C]&lt;[D],[D]-(ABS([C]-[D])/7),[D]+(ABS([C]-[D])/7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="A Vol" dataDxfId="24" dataCellStyle="Separador de milhares">
+    <tableColumn id="20" name="A Vol" dataDxfId="18" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[A Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="B Vol" dataDxfId="23" dataCellStyle="Separador de milhares">
+    <tableColumn id="21" name="B Vol" dataDxfId="17" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[B Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="C Vol" dataDxfId="22" dataCellStyle="Separador de milhares">
+    <tableColumn id="22" name="C Vol" dataDxfId="16" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>ROUNDDOWN(([Patrimonio]*[Risk])/((ABS([D]-[C Start])/[Point])*[Tick]),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1120,7 +1120,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q1:T10" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="Q1:T10">
     <filterColumn colId="3"/>
   </autoFilter>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1822,15 +1822,15 @@
         <v>491.34000000000003</v>
       </c>
       <c r="F14" s="3">
-        <v>1.36</v>
+        <v>21.65</v>
       </c>
       <c r="G14" s="29">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>492.70000000000005</v>
+        <v>512.99</v>
       </c>
       <c r="H14" s="4">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>2.7679407335042946E-3</v>
+        <v>4.4063174176741153E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1839,22 +1839,24 @@
       </c>
       <c r="B15" s="7">
         <f>G14</f>
-        <v>492.70000000000005</v>
+        <v>512.99</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
-        <v>492.70000000000005</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>512.99</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.22</v>
+      </c>
       <c r="G15" s="29">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>492.70000000000005</v>
+        <v>514.21</v>
       </c>
       <c r="H15" s="4">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
-        <v>0</v>
+        <v>2.3782140002729098E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1863,18 +1865,18 @@
       </c>
       <c r="B16" s="11">
         <f>G15</f>
-        <v>492.70000000000005</v>
+        <v>514.21</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]</f>
-        <v>492.70000000000005</v>
+        <v>514.21</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9">
         <f>Tabela1[[#This Row],[Saldo Anterior]]+Tabela1[[#This Row],[Depósito]]+Tabela1[[#This Row],[Lucro]]-Tabela1[[#This Row],[Retirada]]</f>
-        <v>492.70000000000005</v>
+        <v>514.21</v>
       </c>
       <c r="H16" s="10">
         <f>IF(Tabela1[[#This Row],[Saldo Anterior]]=0,Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Depósito]],Tabela1[[#This Row],[Lucro]]/Tabela1[[#This Row],[Saldo Anterior]])</f>
@@ -1893,23 +1895,23 @@
       </c>
       <c r="D17" s="33">
         <f>Tabela1[[#Totals],[Lucro]]/Tabela1[[#Totals],[Depósito]]</f>
-        <v>0.34551313561636349</v>
+        <v>0.40425473810694185</v>
       </c>
       <c r="E17" s="33">
         <f>(1+Tabela1[[#Totals],[Retirada]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.9982051171871573E-2</v>
+        <v>2.2891869295599498E-2</v>
       </c>
       <c r="F17" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>126.52</v>
+        <v>148.03</v>
       </c>
       <c r="G17" s="33">
         <f>(1+Tabela1[[#Totals],[%Rentabilidade]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.5444129075487654E-2</v>
+        <v>2.8369529486432121E-2</v>
       </c>
       <c r="H17" s="33">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>0.45773991230619249</v>
+        <v>0.52138104385420569</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1943,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2282,14 +2284,16 @@
         <f>B14+F13</f>
         <v>167.00999999999993</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>8.32</v>
+      </c>
       <c r="F14" s="29">
         <f>D14+E14-C14</f>
-        <v>167.00999999999993</v>
+        <v>175.32999999999993</v>
       </c>
       <c r="G14" s="4">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E14/D14,0)</f>
-        <v>0</v>
+        <v>4.9817376205017687E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2300,12 +2304,12 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3">
         <f>B15+F14</f>
-        <v>167.00999999999993</v>
+        <v>175.32999999999993</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="29">
         <f>D15+E15-C15</f>
-        <v>167.00999999999993</v>
+        <v>175.32999999999993</v>
       </c>
       <c r="G15" s="4">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E15/D15,0)</f>
@@ -2320,12 +2324,12 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8">
         <f>B16+F15</f>
-        <v>167.00999999999993</v>
+        <v>175.32999999999993</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9">
         <f>D16+E16-C16</f>
-        <v>167.00999999999993</v>
+        <v>175.32999999999993</v>
       </c>
       <c r="G16" s="10">
         <f>IF(Tabela13[[#This Row],[Lucro]]&lt;&gt;0,E16/D16,0)</f>
@@ -2343,15 +2347,15 @@
       </c>
       <c r="E17" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-154.61000000000001</v>
+        <v>-146.29000000000002</v>
       </c>
       <c r="F17" s="33">
         <f>(1+Tabela13[[#Totals],[%Rentabilidade]])^(1/Tabela13[[#Totals],[Data]])-1</f>
-        <v>-1.7443602210981179E-2</v>
+        <v>-1.4253890639875588E-2</v>
       </c>
       <c r="G17" s="33">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.23199805888619041</v>
+        <v>-0.19373821725953999</v>
       </c>
     </row>
   </sheetData>
@@ -2777,7 +2781,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3065,15 +3069,15 @@
       </c>
       <c r="C14" s="3">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>1.36</v>
+        <v>29.97</v>
       </c>
       <c r="D14" s="29">
         <f>B14+C14</f>
-        <v>659.80000000000007</v>
+        <v>688.41000000000008</v>
       </c>
       <c r="E14" s="4">
         <f>C14/B14</f>
-        <v>2.0654881234432902E-3</v>
+        <v>4.5516675779114266E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3082,19 +3086,19 @@
       </c>
       <c r="B15" s="3">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D14</f>
-        <v>659.80000000000007</v>
+        <v>688.41000000000008</v>
       </c>
       <c r="C15" s="3">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="D15" s="29">
         <f>B15+C15</f>
-        <v>659.80000000000007</v>
+        <v>689.63000000000011</v>
       </c>
       <c r="E15" s="4">
         <f>C15/B15</f>
-        <v>0</v>
+        <v>1.7721997065702122E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3103,7 +3107,7 @@
       </c>
       <c r="B16" s="8">
         <f>Tabela1[[#This Row],[Depósito]]+Tabela13[[#This Row],[Depósito]]+Tabela14[[#This Row],[Depósito]]-(Tabela1[[#This Row],[Retirada]]+Tabela13[[#This Row],[Retirada]]+Tabela14[[#This Row],[Retirada]])+D15</f>
-        <v>659.80000000000007</v>
+        <v>689.63000000000011</v>
       </c>
       <c r="C16" s="8">
         <f>Tabela1[[#This Row],[Lucro]]+Tabela13[[#This Row],[Lucro]]+Tabela14[[#This Row],[Lucro]]</f>
@@ -3111,7 +3115,7 @@
       </c>
       <c r="D16" s="9">
         <f>B16+C16</f>
-        <v>659.80000000000007</v>
+        <v>689.63000000000011</v>
       </c>
       <c r="E16" s="10">
         <f>C16/B16</f>
@@ -3125,15 +3129,15 @@
       </c>
       <c r="C17" s="3">
         <f>SUBTOTAL(109,[Lucro])</f>
-        <v>-88.000000000000043</v>
+        <v>-58.170000000000044</v>
       </c>
       <c r="D17" s="33">
         <f>(1+Tabela15[[#Totals],[%Rentabilidade]])^(1/Tabela15[[#Totals],[Data]])-1</f>
-        <v>-2.1318834798537467E-2</v>
+        <v>-1.84295263997164E-2</v>
       </c>
       <c r="E17" s="33">
         <f>SUMPRODUCT(PRODUCT([%Rentabilidade]+1)-1)</f>
-        <v>-0.27620020544616308</v>
+        <v>-0.24347673186092345</v>
       </c>
     </row>
   </sheetData>
@@ -3148,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3409,15 +3413,19 @@
       <c r="A14" s="2">
         <v>42430</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3">
+        <v>357.21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>348.89</v>
+      </c>
       <c r="D14" s="3">
         <f>Tabela16[[#This Row],[Prize]]-Tabela16[[#This Row],[Buy-In]]</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="str">
+        <v>8.3199999999999932</v>
+      </c>
+      <c r="E14" s="4">
         <f>IF(Tabela16[[#This Row],[Buy-In]]&lt;&gt;0,Tabela16[[#This Row],[Profit]]/Tabela16[[#This Row],[Buy-In]],"")</f>
-        <v/>
+        <v>2.3847057811917777E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3457,19 +3465,19 @@
       </c>
       <c r="B17" s="3">
         <f>SUBTOTAL(109,[Prize])</f>
-        <v>2997.52</v>
+        <v>3354.73</v>
       </c>
       <c r="C17" s="3">
         <f>SUBTOTAL(109,[Buy-In])</f>
-        <v>3211.0400000000004</v>
+        <v>3559.9300000000003</v>
       </c>
       <c r="D17" s="3">
         <f>SUBTOTAL(109,[Profit])</f>
-        <v>-213.52</v>
+        <v>-205.20000000000002</v>
       </c>
       <c r="E17" s="33">
         <f>SUBTOTAL(101,[%ROI])</f>
-        <v>-0.13337495902163204</v>
+        <v>-0.11908204840040025</v>
       </c>
     </row>
   </sheetData>
